--- a/baza.xlsx
+++ b/baza.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ily06\Desktop\vizul\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3032ECD-ED9B-4889-8706-BAA9E2C027CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA58E0ED-AC8C-4EA6-9189-5D82C613D8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Общий лист" sheetId="1" r:id="rId1"/>
+    <sheet name="мужской" sheetId="7" r:id="rId2"/>
+    <sheet name="женский" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="17">
   <si>
     <t>наименование</t>
   </si>
@@ -61,13 +63,28 @@
   </si>
   <si>
     <t>The North Face</t>
+  </si>
+  <si>
+    <t>Куртка утепленная женская Outventure</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Outventure</t>
+  </si>
+  <si>
+    <t>Мага</t>
+  </si>
+  <si>
+    <t>2 249</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +97,21 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF2D2D2D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFED1C24"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -103,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -111,6 +143,10 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -391,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="A5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -463,8 +499,330 @@
         <v>44550</v>
       </c>
     </row>
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3">
+        <v>12799</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="H3" s="4">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3">
+        <v>12799</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4" s="4">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="33.6" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5" s="4">
+        <v>44511</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831276D7-B720-44F3-8E54-6A7ABC8F4E60}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="44.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="4" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="7" width="26.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="23.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3">
+        <v>12799</v>
+      </c>
+      <c r="G2">
+        <v>15</v>
+      </c>
+      <c r="H2" s="4">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3">
+        <v>12799</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="H3" s="4">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3">
+        <v>12799</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4" s="4">
+        <v>44550</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7C6E38-6D53-4BC1-9759-D7D064628A53}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="44.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="4" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="7" width="26.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="23.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3">
+        <v>12799</v>
+      </c>
+      <c r="G2">
+        <v>15</v>
+      </c>
+      <c r="H2" s="4">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="33.6" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3" s="4">
+        <v>44511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="H4" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/baza.xlsx
+++ b/baza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ily06\Desktop\vizul\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA58E0ED-AC8C-4EA6-9189-5D82C613D8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4721F1-B91A-422F-A147-A2475D2EFC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Общий лист" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="73">
   <si>
     <t>наименование</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Фото</t>
   </si>
   <si>
-    <t>Куртка утепленная мужская The North Face Quest Insulated</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
@@ -74,10 +71,181 @@
     <t>Outventure</t>
   </si>
   <si>
-    <t>Мага</t>
-  </si>
-  <si>
-    <t>2 249</t>
+    <t>Спортмастер</t>
+  </si>
+  <si>
+    <t>Куртка утепленная женская Columbia Joy Peak, Plus Size</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Columbia</t>
+  </si>
+  <si>
+    <t>Джемпер флисовый женский Columbia West Bend™</t>
+  </si>
+  <si>
+    <t>Брюки женские FILA</t>
+  </si>
+  <si>
+    <t>FILA</t>
+  </si>
+  <si>
+    <t>Свитшот женский FILA</t>
+  </si>
+  <si>
+    <t>Футболка женская FILA</t>
+  </si>
+  <si>
+    <t>Джемпер флисовый женский Jack Wolfskin Pine Leaf</t>
+  </si>
+  <si>
+    <t>Jack Wolfskin</t>
+  </si>
+  <si>
+    <t>Джемпер флисовый женский The North Face Diablo</t>
+  </si>
+  <si>
+    <t>Шалфейно-зеленое платье миди с вышивкой ришелье и V-образным вырезом в стиле ампир ASOS DESIGN Petite</t>
+  </si>
+  <si>
+    <t>ASOS DESIGN</t>
+  </si>
+  <si>
+    <t>ASOS</t>
+  </si>
+  <si>
+    <t>Броское черное платье мини из атласа First Distraction The Label Plus</t>
+  </si>
+  <si>
+    <t>XL</t>
+  </si>
+  <si>
+    <t>First Distraction The Label Plus</t>
+  </si>
+  <si>
+    <t>Черные брюки Nobody's Child Zena</t>
+  </si>
+  <si>
+    <t>Nobody's Child</t>
+  </si>
+  <si>
+    <t>Белый приталенный топ с короткими рукавами и сборками спереди ASOS DESIGN</t>
+  </si>
+  <si>
+    <t>Черный трикотажный кардиган в рубчик с объемными рукавами Topshop</t>
+  </si>
+  <si>
+    <t>TopShop</t>
+  </si>
+  <si>
+    <t>Джинсы 501 CROP</t>
+  </si>
+  <si>
+    <t>Levi's</t>
+  </si>
+  <si>
+    <t>Lamoda</t>
+  </si>
+  <si>
+    <t>Пуховик Dorleon</t>
+  </si>
+  <si>
+    <t>Куртка утепленная Favina-1</t>
+  </si>
+  <si>
+    <t>Hugo</t>
+  </si>
+  <si>
+    <t>Boss</t>
+  </si>
+  <si>
+    <t>Рубашка мужская</t>
+  </si>
+  <si>
+    <t>O'stin</t>
+  </si>
+  <si>
+    <t>Свитшот Ritom_W21</t>
+  </si>
+  <si>
+    <t>XXL</t>
+  </si>
+  <si>
+    <t>ПУХОВИК TREK 500 МУЖСКОЙ FORCLAZ</t>
+  </si>
+  <si>
+    <t>Forclaz</t>
+  </si>
+  <si>
+    <t>Decathlon</t>
+  </si>
+  <si>
+    <t>ПУХОВИК ДЛЯ АЛЬПИНИЗМА МУЖСКОЙ MAKALU SIMOND</t>
+  </si>
+  <si>
+    <t>Simond</t>
+  </si>
+  <si>
+    <t>КУРТКА ПУХОВАЯ ТЕПЛАЯ ЛЫЖНАЯ МУЖСКАЯ СИНЯЯ 900 WARM WEDZE</t>
+  </si>
+  <si>
+    <t>Wedze</t>
+  </si>
+  <si>
+    <t>КУРТКА ВОДОНЕПРОНИЦАЕМАЯ ДЛЯ ЯХТИНГА МУЖСКАЯ SAILING 100 TRIBORD</t>
+  </si>
+  <si>
+    <t>Tribord</t>
+  </si>
+  <si>
+    <t>ВЕТРОВКА ДЛЯ БЕГА МУЖСКАЯ RUN WIND ЧЕРНАЯ KALENJI</t>
+  </si>
+  <si>
+    <t>Kalenji</t>
+  </si>
+  <si>
+    <t>ФУТБОЛЬНАЯ КУРТКА ДЛЯ ВЗРОСЛЫХ ЛЕГКАЯ T100 KIPSTA</t>
+  </si>
+  <si>
+    <t>Kipsta</t>
+  </si>
+  <si>
+    <t>Пултоник водолазка мужская теплая кашемировая шерстяная с высоким горлом больших размеров подарок</t>
+  </si>
+  <si>
+    <t>Pulltonic</t>
+  </si>
+  <si>
+    <t>Wildberries</t>
+  </si>
+  <si>
+    <t>Пиджак мужской темно-синий</t>
+  </si>
+  <si>
+    <t>Thomas Berger</t>
+  </si>
+  <si>
+    <t>Утепленный стёганный жилет с трикотажным отстёгивающимся капюшоном</t>
+  </si>
+  <si>
+    <t>Куртка мужская зимняя повседневная, спортивная </t>
+  </si>
+  <si>
+    <t>City Trend Store</t>
+  </si>
+  <si>
+    <t>Куртка мужская зимняя укороченная повседневная удобная</t>
+  </si>
+  <si>
+    <t>Skiff</t>
+  </si>
+  <si>
+    <t>Мужская короткая зимняя куртка марки "Modis"</t>
+  </si>
+  <si>
+    <t>Modis</t>
   </si>
 </sst>
 </file>
@@ -100,18 +268,16 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color rgb="FF2D2D2D"/>
-      <name val="Arial"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color rgb="FFED1C24"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -135,18 +301,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -427,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="A5:J5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,109 +643,788 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2">
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2249</v>
+      </c>
+      <c r="G2" s="4">
+        <v>15</v>
+      </c>
+      <c r="H2" s="6">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="36" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5">
+        <v>6499</v>
+      </c>
+      <c r="G3" s="4">
+        <v>15</v>
+      </c>
+      <c r="H3" s="6">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="36" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="5">
+        <v>3199</v>
+      </c>
+      <c r="G4" s="4">
+        <v>10</v>
+      </c>
+      <c r="H4" s="6">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1749</v>
+      </c>
+      <c r="G5" s="4">
+        <v>8</v>
+      </c>
+      <c r="H5" s="6">
+        <v>44489</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1609</v>
+      </c>
+      <c r="G6" s="4">
+        <v>10</v>
+      </c>
+      <c r="H6" s="6">
+        <v>44490</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="5">
+        <v>499</v>
+      </c>
+      <c r="G7" s="4">
+        <v>20</v>
+      </c>
+      <c r="H7" s="6">
+        <v>44491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="36" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="5">
+        <v>9999</v>
+      </c>
+      <c r="G8" s="4">
+        <v>5</v>
+      </c>
+      <c r="H8" s="6">
+        <v>44492</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="36" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="5">
+        <v>9399</v>
+      </c>
+      <c r="G9" s="4">
+        <v>10</v>
+      </c>
+      <c r="H9" s="6">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="5">
+        <v>550</v>
+      </c>
+      <c r="G10" s="4">
+        <v>20</v>
+      </c>
+      <c r="H10" s="6">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="36" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="5">
+        <v>3390</v>
+      </c>
+      <c r="G11" s="4">
+        <v>15</v>
+      </c>
+      <c r="H11" s="6">
+        <v>44551</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="36" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="5">
+        <v>3390</v>
+      </c>
+      <c r="G12" s="4">
+        <v>10</v>
+      </c>
+      <c r="H12" s="6">
+        <v>44490</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="54" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="5">
+        <v>790</v>
+      </c>
+      <c r="G13" s="4">
+        <v>15</v>
+      </c>
+      <c r="H13" s="6">
+        <v>44491</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="54" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="3">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2890</v>
+      </c>
+      <c r="G14" s="4">
+        <v>8</v>
+      </c>
+      <c r="H14" s="6">
+        <v>44492</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="3">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="5">
+        <v>9500</v>
+      </c>
+      <c r="G15" s="4">
+        <v>10</v>
+      </c>
+      <c r="H15" s="6">
+        <v>44490</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="3">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="5">
+        <v>45000</v>
+      </c>
+      <c r="G16" s="4">
+        <v>2</v>
+      </c>
+      <c r="H16" s="6">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="3">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="5">
+        <v>39200</v>
+      </c>
+      <c r="G17" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="H17" s="6">
+        <v>44492</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="3">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="5">
+        <v>2299</v>
+      </c>
+      <c r="G18" s="4">
+        <v>20</v>
+      </c>
+      <c r="H18" s="6">
+        <v>44493</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="3">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="5">
+        <v>9100</v>
+      </c>
+      <c r="G19" s="4">
+        <v>5</v>
+      </c>
+      <c r="H19" s="6">
+        <v>44490</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="3">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="5">
+        <v>4999</v>
+      </c>
+      <c r="G20" s="4">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3">
-        <v>12799</v>
-      </c>
-      <c r="G2">
+      <c r="H20" s="6">
+        <v>44491</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="3">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="5">
+        <v>10999</v>
+      </c>
+      <c r="G21" s="4">
+        <v>8</v>
+      </c>
+      <c r="H21" s="6">
+        <v>44492</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="3">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="5">
+        <v>10999</v>
+      </c>
+      <c r="G22" s="4">
+        <v>5</v>
+      </c>
+      <c r="H22" s="6">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="3">
+        <v>22</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="5">
+        <v>2499</v>
+      </c>
+      <c r="G23" s="4">
         <v>15</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H23" s="6">
+        <v>44492</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="3">
+        <v>23</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1199</v>
+      </c>
+      <c r="G24" s="4">
+        <v>20</v>
+      </c>
+      <c r="H24" s="6">
         <v>44550</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="3">
+        <v>24</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="5">
+        <v>999</v>
+      </c>
+      <c r="G25" s="4">
+        <v>15</v>
+      </c>
+      <c r="H25" s="6">
+        <v>44490</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="3">
+        <v>25</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="5">
+        <v>2910</v>
+      </c>
+      <c r="G26" s="4">
+        <v>10</v>
+      </c>
+      <c r="H26" s="6">
+        <v>44491</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="3">
+        <v>26</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="5">
+        <v>8542</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="6">
+        <v>44492</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="3">
+        <v>27</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3">
-        <v>12799</v>
-      </c>
-      <c r="G3">
-        <v>15</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="D28" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="5">
+        <v>4798</v>
+      </c>
+      <c r="G28" s="4">
+        <v>3</v>
+      </c>
+      <c r="H28" s="6">
         <v>44550</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3">
-        <v>12799</v>
-      </c>
-      <c r="G4">
-        <v>15</v>
-      </c>
-      <c r="H4" s="4">
+    <row r="29" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="3">
+        <v>28</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="5">
+        <v>8381</v>
+      </c>
+      <c r="G29" s="4">
+        <v>4</v>
+      </c>
+      <c r="H29" s="6">
+        <v>44491</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="3">
+        <v>29</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="5">
+        <v>4787</v>
+      </c>
+      <c r="G30" s="4">
+        <v>6</v>
+      </c>
+      <c r="H30" s="6">
+        <v>44492</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+      <c r="A31" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="3">
+        <v>30</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="5">
+        <v>4849</v>
+      </c>
+      <c r="G31" s="4">
+        <v>5</v>
+      </c>
+      <c r="H31" s="6">
         <v>44550</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="33.6" x14ac:dyDescent="0.4">
-      <c r="A5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5">
-        <v>7</v>
-      </c>
-      <c r="H5" s="4">
-        <v>44511</v>
-      </c>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -585,10 +1434,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831276D7-B720-44F3-8E54-6A7ABC8F4E60}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -631,81 +1480,419 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="3">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="5">
+        <v>45000</v>
+      </c>
+      <c r="G2" s="4">
+        <v>2</v>
+      </c>
+      <c r="H2" s="6">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="3">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="5">
+        <v>39200</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
+        <v>44492</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="3">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2299</v>
+      </c>
+      <c r="G4" s="4">
+        <v>20</v>
+      </c>
+      <c r="H4" s="6">
+        <v>44493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="3">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="5">
+        <v>9100</v>
+      </c>
+      <c r="G5" s="4">
+        <v>5</v>
+      </c>
+      <c r="H5" s="6">
+        <v>44490</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="3">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2">
+      <c r="D6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="5">
+        <v>4999</v>
+      </c>
+      <c r="G6" s="4">
+        <v>10</v>
+      </c>
+      <c r="H6" s="6">
+        <v>44491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="3">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="5">
+        <v>10999</v>
+      </c>
+      <c r="G7" s="4">
+        <v>8</v>
+      </c>
+      <c r="H7" s="6">
+        <v>44492</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="3">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="5">
+        <v>10999</v>
+      </c>
+      <c r="G8" s="4">
+        <v>5</v>
+      </c>
+      <c r="H8" s="6">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="3">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2499</v>
+      </c>
+      <c r="G9" s="4">
+        <v>15</v>
+      </c>
+      <c r="H9" s="6">
+        <v>44492</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="3">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1199</v>
+      </c>
+      <c r="G10" s="4">
+        <v>20</v>
+      </c>
+      <c r="H10" s="6">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="3">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="5">
+        <v>999</v>
+      </c>
+      <c r="G11" s="4">
+        <v>15</v>
+      </c>
+      <c r="H11" s="6">
+        <v>44490</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="3">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2910</v>
+      </c>
+      <c r="G12" s="4">
+        <v>10</v>
+      </c>
+      <c r="H12" s="6">
+        <v>44491</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="36" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="3">
+        <v>26</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="5">
+        <v>8542</v>
+      </c>
+      <c r="G13" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3">
-        <v>12799</v>
-      </c>
-      <c r="G2">
-        <v>15</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="H13" s="6">
+        <v>44492</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="36" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="3">
+        <v>27</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="5">
+        <v>4798</v>
+      </c>
+      <c r="G14" s="4">
+        <v>3</v>
+      </c>
+      <c r="H14" s="6">
         <v>44550</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3">
-        <v>12799</v>
-      </c>
-      <c r="G3">
-        <v>15</v>
-      </c>
-      <c r="H3" s="4">
-        <v>44550</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3">
-        <v>12799</v>
-      </c>
-      <c r="G4">
-        <v>15</v>
-      </c>
-      <c r="H4" s="4">
+    <row r="15" spans="1:9" ht="36" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="3">
+        <v>28</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="5">
+        <v>8381</v>
+      </c>
+      <c r="G15" s="4">
+        <v>4</v>
+      </c>
+      <c r="H15" s="6">
+        <v>44491</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="3">
+        <v>29</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="5">
+        <v>4787</v>
+      </c>
+      <c r="G16" s="4">
+        <v>6</v>
+      </c>
+      <c r="H16" s="6">
+        <v>44492</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="3">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="5">
+        <v>4849</v>
+      </c>
+      <c r="G17" s="4">
+        <v>5</v>
+      </c>
+      <c r="H17" s="6">
         <v>44550</v>
       </c>
     </row>
@@ -716,10 +1903,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7C6E38-6D53-4BC1-9759-D7D064628A53}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -762,65 +1949,369 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2249</v>
+      </c>
+      <c r="G2" s="4">
+        <v>15</v>
+      </c>
+      <c r="H2" s="6">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="36" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5">
+        <v>6499</v>
+      </c>
+      <c r="G3" s="4">
+        <v>15</v>
+      </c>
+      <c r="H3" s="6">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="36" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="5">
+        <v>3199</v>
+      </c>
+      <c r="G4" s="4">
+        <v>10</v>
+      </c>
+      <c r="H4" s="6">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1749</v>
+      </c>
+      <c r="G5" s="4">
+        <v>8</v>
+      </c>
+      <c r="H5" s="6">
+        <v>44489</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1609</v>
+      </c>
+      <c r="G6" s="4">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H6" s="6">
+        <v>44490</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="5">
+        <v>499</v>
+      </c>
+      <c r="G7" s="4">
+        <v>20</v>
+      </c>
+      <c r="H7" s="6">
+        <v>44491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="36" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="5">
+        <v>9999</v>
+      </c>
+      <c r="G8" s="4">
+        <v>5</v>
+      </c>
+      <c r="H8" s="6">
+        <v>44492</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="36" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="5">
+        <v>9399</v>
+      </c>
+      <c r="G9" s="4">
+        <v>10</v>
+      </c>
+      <c r="H9" s="6">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="5">
+        <v>550</v>
+      </c>
+      <c r="G10" s="4">
+        <v>20</v>
+      </c>
+      <c r="H10" s="6">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="36" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="5">
+        <v>3390</v>
+      </c>
+      <c r="G11" s="4">
+        <v>15</v>
+      </c>
+      <c r="H11" s="6">
+        <v>44551</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="36" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="3">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3">
-        <v>12799</v>
-      </c>
-      <c r="G2">
+      <c r="C12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="5">
+        <v>3390</v>
+      </c>
+      <c r="G12" s="4">
+        <v>10</v>
+      </c>
+      <c r="H12" s="6">
+        <v>44490</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="54" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="5">
+        <v>790</v>
+      </c>
+      <c r="G13" s="4">
         <v>15</v>
       </c>
-      <c r="H2" s="4">
-        <v>44550</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="33.6" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="H13" s="6">
+        <v>44491</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="54" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="3">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="C14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2890</v>
+      </c>
+      <c r="G14" s="4">
+        <v>8</v>
+      </c>
+      <c r="H14" s="6">
+        <v>44492</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="3">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <v>7</v>
-      </c>
-      <c r="H3" s="4">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
-      <c r="H4" s="4"/>
+      <c r="C15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="5">
+        <v>9500</v>
+      </c>
+      <c r="G15" s="4">
+        <v>10</v>
+      </c>
+      <c r="H15" s="6">
+        <v>44490</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/baza.xlsx
+++ b/baza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ily06\Desktop\vizul\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4721F1-B91A-422F-A147-A2475D2EFC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11221C2F-7A77-497A-A1B1-58F015AEC847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="103">
   <si>
     <t>наименование</t>
   </si>
@@ -246,6 +246,96 @@
   </si>
   <si>
     <t>Modis</t>
+  </si>
+  <si>
+    <t>C:\Users\ily06\Desktop\vizul\photo\1.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\ily06\Desktop\vizul\photo\3.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\ily06\Desktop\vizul\photo\7.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\ily06\Desktop\vizul\photo\9.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\ily06\Desktop\vizul\photo\12.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\ily06\Desktop\vizul\photo\14.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\ily06\Desktop\vizul\photo\2.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\ily06\Desktop\vizul\photo\4.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\ily06\Desktop\vizul\photo\5.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\ily06\Desktop\vizul\photo\6.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\ily06\Desktop\vizul\photo\8.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\ily06\Desktop\vizul\photo\10.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\ily06\Desktop\vizul\photo\11.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\ily06\Desktop\vizul\photo\13.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\ily06\Desktop\vizul\photo\15.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\ily06\Desktop\vizul\photo\16.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\ily06\Desktop\vizul\photo\17.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\ily06\Desktop\vizul\photo\18.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\ily06\Desktop\vizul\photo\19.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\ily06\Desktop\vizul\photo\20.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\ily06\Desktop\vizul\photo\21.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\ily06\Desktop\vizul\photo\22.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\ily06\Desktop\vizul\photo\23.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\ily06\Desktop\vizul\photo\24.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\ily06\Desktop\vizul\photo\25.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\ily06\Desktop\vizul\photo\26.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\ily06\Desktop\vizul\photo\27.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\ily06\Desktop\vizul\photo\28.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\ily06\Desktop\vizul\photo\29.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\ily06\Desktop\vizul\photo\30.jpg</t>
   </si>
 </sst>
 </file>
@@ -599,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -611,7 +701,7 @@
     <col min="4" max="5" width="18.109375" customWidth="1"/>
     <col min="6" max="7" width="26.6640625" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" customWidth="1"/>
-    <col min="9" max="9" width="23.77734375" customWidth="1"/>
+    <col min="9" max="9" width="41.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
@@ -668,6 +758,9 @@
       <c r="H2" s="6">
         <v>44550</v>
       </c>
+      <c r="I2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="36" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -694,6 +787,9 @@
       <c r="H3" s="6">
         <v>44550</v>
       </c>
+      <c r="I3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="36" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -720,6 +816,9 @@
       <c r="H4" s="6">
         <v>44550</v>
       </c>
+      <c r="I4" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
@@ -746,6 +845,9 @@
       <c r="H5" s="6">
         <v>44489</v>
       </c>
+      <c r="I5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
@@ -772,6 +874,9 @@
       <c r="H6" s="6">
         <v>44490</v>
       </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
@@ -798,6 +903,9 @@
       <c r="H7" s="6">
         <v>44491</v>
       </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="36" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
@@ -824,6 +932,9 @@
       <c r="H8" s="6">
         <v>44492</v>
       </c>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="36" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
@@ -850,6 +961,9 @@
       <c r="H9" s="6">
         <v>44550</v>
       </c>
+      <c r="I9" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
@@ -876,6 +990,9 @@
       <c r="H10" s="6">
         <v>44550</v>
       </c>
+      <c r="I10" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="36" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
@@ -902,6 +1019,9 @@
       <c r="H11" s="6">
         <v>44551</v>
       </c>
+      <c r="I11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="36" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
@@ -928,6 +1048,9 @@
       <c r="H12" s="6">
         <v>44490</v>
       </c>
+      <c r="I12" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="54" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
@@ -954,6 +1077,9 @@
       <c r="H13" s="6">
         <v>44491</v>
       </c>
+      <c r="I13" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="54" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
@@ -980,6 +1106,9 @@
       <c r="H14" s="6">
         <v>44492</v>
       </c>
+      <c r="I14" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
@@ -1006,6 +1135,9 @@
       <c r="H15" s="6">
         <v>44490</v>
       </c>
+      <c r="I15" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
@@ -1032,8 +1164,11 @@
       <c r="H16" s="6">
         <v>44550</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="I16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>40</v>
       </c>
@@ -1058,8 +1193,11 @@
       <c r="H17" s="6">
         <v>44492</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="I17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>44</v>
       </c>
@@ -1084,8 +1222,11 @@
       <c r="H18" s="6">
         <v>44493</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="I18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>46</v>
       </c>
@@ -1110,8 +1251,11 @@
       <c r="H19" s="6">
         <v>44490</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="I19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>48</v>
       </c>
@@ -1136,8 +1280,11 @@
       <c r="H20" s="6">
         <v>44491</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="I20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>51</v>
       </c>
@@ -1162,8 +1309,11 @@
       <c r="H21" s="6">
         <v>44492</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="I21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>53</v>
       </c>
@@ -1188,8 +1338,11 @@
       <c r="H22" s="6">
         <v>44550</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="I22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>55</v>
       </c>
@@ -1214,8 +1367,11 @@
       <c r="H23" s="6">
         <v>44492</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="I23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>57</v>
       </c>
@@ -1240,8 +1396,11 @@
       <c r="H24" s="6">
         <v>44550</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="I24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>59</v>
       </c>
@@ -1266,8 +1425,11 @@
       <c r="H25" s="6">
         <v>44490</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="I25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>61</v>
       </c>
@@ -1292,8 +1454,11 @@
       <c r="H26" s="6">
         <v>44491</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+      <c r="I26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="36" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>64</v>
       </c>
@@ -1318,8 +1483,11 @@
       <c r="H27" s="6">
         <v>44492</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+      <c r="I27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="36" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>66</v>
       </c>
@@ -1344,8 +1512,11 @@
       <c r="H28" s="6">
         <v>44550</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+      <c r="I28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="36" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>67</v>
       </c>
@@ -1370,8 +1541,11 @@
       <c r="H29" s="6">
         <v>44491</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="I29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>69</v>
       </c>
@@ -1396,8 +1570,11 @@
       <c r="H30" s="6">
         <v>44492</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+      <c r="I30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="36" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>71</v>
       </c>
@@ -1422,8 +1599,11 @@
       <c r="H31" s="6">
         <v>44550</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
     </row>
   </sheetData>
@@ -1437,7 +1617,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="I2" sqref="I2:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1448,7 +1628,7 @@
     <col min="4" max="5" width="18.109375" customWidth="1"/>
     <col min="6" max="7" width="26.6640625" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" customWidth="1"/>
-    <col min="9" max="9" width="23.77734375" customWidth="1"/>
+    <col min="9" max="9" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
@@ -1505,6 +1685,9 @@
       <c r="H2" s="6">
         <v>44550</v>
       </c>
+      <c r="I2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
@@ -1531,6 +1714,9 @@
       <c r="H3" s="6">
         <v>44492</v>
       </c>
+      <c r="I3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
@@ -1557,6 +1743,9 @@
       <c r="H4" s="6">
         <v>44493</v>
       </c>
+      <c r="I4" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
@@ -1583,6 +1772,9 @@
       <c r="H5" s="6">
         <v>44490</v>
       </c>
+      <c r="I5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
@@ -1609,6 +1801,9 @@
       <c r="H6" s="6">
         <v>44491</v>
       </c>
+      <c r="I6" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
@@ -1635,6 +1830,9 @@
       <c r="H7" s="6">
         <v>44492</v>
       </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
@@ -1661,6 +1859,9 @@
       <c r="H8" s="6">
         <v>44550</v>
       </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
@@ -1687,6 +1888,9 @@
       <c r="H9" s="6">
         <v>44492</v>
       </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
@@ -1713,6 +1917,9 @@
       <c r="H10" s="6">
         <v>44550</v>
       </c>
+      <c r="I10" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
@@ -1739,6 +1946,9 @@
       <c r="H11" s="6">
         <v>44490</v>
       </c>
+      <c r="I11" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
@@ -1765,6 +1975,9 @@
       <c r="H12" s="6">
         <v>44491</v>
       </c>
+      <c r="I12" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="36" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
@@ -1791,6 +2004,9 @@
       <c r="H13" s="6">
         <v>44492</v>
       </c>
+      <c r="I13" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="36" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
@@ -1817,6 +2033,9 @@
       <c r="H14" s="6">
         <v>44550</v>
       </c>
+      <c r="I14" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="36" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
@@ -1843,6 +2062,9 @@
       <c r="H15" s="6">
         <v>44491</v>
       </c>
+      <c r="I15" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
@@ -1869,8 +2091,11 @@
       <c r="H16" s="6">
         <v>44492</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+      <c r="I16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="36" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>71</v>
       </c>
@@ -1894,6 +2119,9 @@
       </c>
       <c r="H17" s="6">
         <v>44550</v>
+      </c>
+      <c r="I17" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1906,7 +2134,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H15"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1917,7 +2145,7 @@
     <col min="4" max="5" width="18.109375" customWidth="1"/>
     <col min="6" max="7" width="26.6640625" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" customWidth="1"/>
-    <col min="9" max="9" width="23.77734375" customWidth="1"/>
+    <col min="9" max="9" width="41.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
@@ -1974,6 +2202,9 @@
       <c r="H2" s="6">
         <v>44550</v>
       </c>
+      <c r="I2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="36" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -2000,6 +2231,9 @@
       <c r="H3" s="6">
         <v>44550</v>
       </c>
+      <c r="I3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="36" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -2026,6 +2260,9 @@
       <c r="H4" s="6">
         <v>44550</v>
       </c>
+      <c r="I4" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
@@ -2052,6 +2289,9 @@
       <c r="H5" s="6">
         <v>44489</v>
       </c>
+      <c r="I5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
@@ -2078,6 +2318,9 @@
       <c r="H6" s="6">
         <v>44490</v>
       </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
@@ -2104,6 +2347,9 @@
       <c r="H7" s="6">
         <v>44491</v>
       </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="36" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
@@ -2130,6 +2376,9 @@
       <c r="H8" s="6">
         <v>44492</v>
       </c>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="36" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
@@ -2156,6 +2405,9 @@
       <c r="H9" s="6">
         <v>44550</v>
       </c>
+      <c r="I9" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
@@ -2182,6 +2434,9 @@
       <c r="H10" s="6">
         <v>44550</v>
       </c>
+      <c r="I10" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="36" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
@@ -2208,6 +2463,9 @@
       <c r="H11" s="6">
         <v>44551</v>
       </c>
+      <c r="I11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="36" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
@@ -2234,6 +2492,9 @@
       <c r="H12" s="6">
         <v>44490</v>
       </c>
+      <c r="I12" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="54" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
@@ -2260,6 +2521,9 @@
       <c r="H13" s="6">
         <v>44491</v>
       </c>
+      <c r="I13" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="54" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
@@ -2286,6 +2550,9 @@
       <c r="H14" s="6">
         <v>44492</v>
       </c>
+      <c r="I14" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
@@ -2312,8 +2579,12 @@
       <c r="H15" s="6">
         <v>44490</v>
       </c>
+      <c r="I15" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/baza.xlsx
+++ b/baza.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
@@ -620,17 +620,17 @@
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="6" t="inlineStr">
-        <is>
-          <t>Брюки женские FILA</t>
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>Свитшот женский FILA</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D5" s="6" t="inlineStr">
@@ -643,18 +643,18 @@
           <t>Спортмастер</t>
         </is>
       </c>
-      <c r="F5" s="3" t="n">
-        <v>1749</v>
+      <c r="F5" s="4" t="n">
+        <v>1609</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>44489</v>
+        <v>44490</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\4.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\5.jpg</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -666,15 +666,15 @@
     <row r="6" ht="18" customHeight="1">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Свитшот женский FILA</t>
+          <t>Футболка женская FILA</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D6" s="6" t="inlineStr">
@@ -688,17 +688,17 @@
         </is>
       </c>
       <c r="F6" s="4" t="n">
-        <v>1609</v>
+        <v>499</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>44490</v>
+        <v>44491</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\5.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\6.jpg</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -710,20 +710,20 @@
     <row r="7" ht="18" customHeight="1">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>Футболка женская FILA</t>
+          <t>Джемпер флисовый женский Jack Wolfskin Pine Leaf</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="D7" s="6" t="inlineStr">
         <is>
-          <t>FILA</t>
+          <t>Jack Wolfskin</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -732,17 +732,17 @@
         </is>
       </c>
       <c r="F7" s="4" t="n">
-        <v>499</v>
+        <v>9999</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>44491</v>
+        <v>44492</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\6.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\7.jpg</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -754,20 +754,20 @@
     <row r="8" ht="36" customHeight="1">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>Джемпер флисовый женский Jack Wolfskin Pine Leaf</t>
+          <t>Джемпер флисовый женский The North Face Diablo</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D8" s="6" t="inlineStr">
         <is>
-          <t>Jack Wolfskin</t>
+          <t>The North Face</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -776,17 +776,17 @@
         </is>
       </c>
       <c r="F8" s="4" t="n">
-        <v>9999</v>
+        <v>9399</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>44492</v>
+        <v>44550</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\7.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\8.jpg</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -798,39 +798,39 @@
     <row r="9" ht="36" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>Джемпер флисовый женский The North Face Diablo</t>
+          <t>Шалфейно-зеленое платье миди с вышивкой ришелье и V-образным вырезом в стиле ампир ASOS DESIGN Petite</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="D9" s="6" t="inlineStr">
         <is>
-          <t>The North Face</t>
+          <t>ASOS DESIGN</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>Спортмастер</t>
+          <t>ASOS</t>
         </is>
       </c>
       <c r="F9" s="4" t="n">
-        <v>9399</v>
+        <v>550</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H9" s="5" t="n">
         <v>44550</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\8.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\9.jpg</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -842,20 +842,20 @@
     <row r="10" ht="72" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>Шалфейно-зеленое платье миди с вышивкой ришелье и V-образным вырезом в стиле ампир ASOS DESIGN Petite</t>
+          <t>Броское черное платье мини из атласа First Distraction The Label Plus</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="D10" s="6" t="inlineStr">
-        <is>
-          <t>ASOS DESIGN</t>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr">
+        <is>
+          <t>First Distraction The Label Plus</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
         </is>
       </c>
       <c r="F10" s="4" t="n">
-        <v>550</v>
+        <v>3390</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>44550</v>
+        <v>44551</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\9.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\10.jpg</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -886,20 +886,20 @@
     <row r="11" ht="36" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>Броское черное платье мини из атласа First Distraction The Label Plus</t>
+          <t>Белый приталенный топ с короткими рукавами и сборками спереди ASOS DESIGN</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="D11" s="7" t="inlineStr">
-        <is>
-          <t>First Distraction The Label Plus</t>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>ASOS DESIGN</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -908,17 +908,17 @@
         </is>
       </c>
       <c r="F11" s="4" t="n">
-        <v>3390</v>
+        <v>790</v>
       </c>
       <c r="G11" s="3" t="n">
         <v>15</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>44551</v>
+        <v>44491</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\10.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\12.jpg</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -930,108 +930,108 @@
     <row r="12" ht="36" customHeight="1">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>Белый приталенный топ с короткими рукавами и сборками спереди ASOS DESIGN</t>
+          <t>Черный трикотажный кардиган в рубчик с объемными рукавами Topshop</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="inlineStr">
+        <is>
+          <t>TopShop</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>ASOS</t>
+        </is>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>2890</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>44492</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>C:\Users\ily06\Desktop\vizul\photo\13.jpg</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Ж</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="54" customHeight="1">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>Джинсы 501 CROP</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
-      <c r="D12" s="6" t="inlineStr">
-        <is>
-          <t>ASOS DESIGN</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>ASOS</t>
-        </is>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>790</v>
-      </c>
-      <c r="G12" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="H12" s="5" t="n">
-        <v>44491</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\12.jpg</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Ж</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="54" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>Черный трикотажный кардиган в рубчик с объемными рукавами Topshop</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
       <c r="D13" s="6" t="inlineStr">
         <is>
-          <t>TopShop</t>
+          <t>Levi's</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>ASOS</t>
+          <t>Lamoda</t>
         </is>
       </c>
       <c r="F13" s="4" t="n">
-        <v>2890</v>
+        <v>9500</v>
       </c>
       <c r="G13" s="3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>44492</v>
+        <v>44490</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\13.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\14.jpg</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Ж</t>
+          <t>М</t>
         </is>
       </c>
     </row>
     <row r="14" ht="54" customHeight="1">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>Джинсы 501 CROP</t>
+          <t>Куртка утепленная Favina-1</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D14" s="6" t="inlineStr">
         <is>
-          <t>Levi's</t>
+          <t>Hugo</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1040,17 +1040,17 @@
         </is>
       </c>
       <c r="F14" s="4" t="n">
-        <v>9500</v>
+        <v>45000</v>
       </c>
       <c r="G14" s="3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>44490</v>
+        <v>44550</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\14.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\15.jpeg</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1062,11 +1062,11 @@
     <row r="15" ht="18" customHeight="1">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Куртка утепленная Favina-1</t>
+          <t>Пуховик Dorleon</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="D15" s="6" t="inlineStr">
         <is>
-          <t>Hugo</t>
+          <t>Boss</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1084,17 +1084,17 @@
         </is>
       </c>
       <c r="F15" s="4" t="n">
-        <v>45000</v>
+        <v>39200</v>
       </c>
       <c r="G15" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>44550</v>
+        <v>44492</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\15.jpeg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\16.jpg</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1106,20 +1106,20 @@
     <row r="16" ht="18" customHeight="1">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>Пуховик Dorleon</t>
+          <t>Рубашка мужская</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D16" s="6" t="inlineStr">
         <is>
-          <t>Boss</t>
+          <t>O'stin</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1128,17 +1128,17 @@
         </is>
       </c>
       <c r="F16" s="4" t="n">
-        <v>39200</v>
+        <v>2299</v>
       </c>
       <c r="G16" s="3" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>44492</v>
+        <v>44493</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\16.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\17.jpg</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1150,39 +1150,39 @@
     <row r="17" ht="18" customHeight="1">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>Рубашка мужская</t>
+          <t>ПУХОВИК TREK 500 МУЖСКОЙ FORCLAZ</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="D17" s="6" t="inlineStr">
         <is>
-          <t>O'stin</t>
+          <t>Forclaz</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>Lamoda</t>
+          <t>Decathlon</t>
         </is>
       </c>
       <c r="F17" s="4" t="n">
-        <v>2299</v>
+        <v>4999</v>
       </c>
       <c r="G17" s="3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>44493</v>
+        <v>44491</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\17.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\19.jpg</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1194,20 +1194,20 @@
     <row r="18" ht="18" customHeight="1">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>ПУХОВИК TREK 500 МУЖСКОЙ FORCLAZ</t>
+          <t>ПУХОВИК ДЛЯ АЛЬПИНИЗМА МУЖСКОЙ MAKALU SIMOND</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="D18" s="6" t="inlineStr">
         <is>
-          <t>Forclaz</t>
+          <t>Simond</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -1216,17 +1216,17 @@
         </is>
       </c>
       <c r="F18" s="4" t="n">
-        <v>4999</v>
+        <v>10999</v>
       </c>
       <c r="G18" s="3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>44491</v>
+        <v>44492</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\19.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\20.jpg</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1238,20 +1238,20 @@
     <row r="19" ht="18" customHeight="1">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>ПУХОВИК ДЛЯ АЛЬПИНИЗМА МУЖСКОЙ MAKALU SIMOND</t>
+          <t>КУРТКА ПУХОВАЯ ТЕПЛАЯ ЛЫЖНАЯ МУЖСКАЯ СИНЯЯ 900 WARM WEDZE</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>XXL</t>
         </is>
       </c>
       <c r="D19" s="6" t="inlineStr">
         <is>
-          <t>Simond</t>
+          <t>Wedze</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
         <v>10999</v>
       </c>
       <c r="G19" s="3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>44492</v>
+        <v>44550</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\20.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\21.jpg</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1282,20 +1282,20 @@
     <row r="20" ht="18" customHeight="1">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>КУРТКА ПУХОВАЯ ТЕПЛАЯ ЛЫЖНАЯ МУЖСКАЯ СИНЯЯ 900 WARM WEDZE</t>
+          <t>КУРТКА ВОДОНЕПРОНИЦАЕМАЯ ДЛЯ ЯХТИНГА МУЖСКАЯ SAILING 100 TRIBORD</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>XXL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D20" s="6" t="inlineStr">
         <is>
-          <t>Wedze</t>
+          <t>Tribord</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
         </is>
       </c>
       <c r="F20" s="4" t="n">
-        <v>10999</v>
+        <v>2499</v>
       </c>
       <c r="G20" s="3" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>44550</v>
+        <v>44492</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\21.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\22.jpg</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1326,20 +1326,20 @@
     <row r="21" ht="18" customHeight="1">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>КУРТКА ВОДОНЕПРОНИЦАЕМАЯ ДЛЯ ЯХТИНГА МУЖСКАЯ SAILING 100 TRIBORD</t>
+          <t>ВЕТРОВКА ДЛЯ БЕГА МУЖСКАЯ RUN WIND ЧЕРНАЯ KALENJI</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="D21" s="6" t="inlineStr">
         <is>
-          <t>Tribord</t>
+          <t>Kalenji</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1348,17 +1348,17 @@
         </is>
       </c>
       <c r="F21" s="4" t="n">
-        <v>2499</v>
+        <v>1199</v>
       </c>
       <c r="G21" s="3" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>44492</v>
+        <v>44550</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\22.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\23.jpg</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1370,20 +1370,20 @@
     <row r="22" ht="18" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>ВЕТРОВКА ДЛЯ БЕГА МУЖСКАЯ RUN WIND ЧЕРНАЯ KALENJI</t>
+          <t>ФУТБОЛЬНАЯ КУРТКА ДЛЯ ВЗРОСЛЫХ ЛЕГКАЯ T100 KIPSTA</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D22" s="6" t="inlineStr">
         <is>
-          <t>Kalenji</t>
+          <t>Kipsta</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
@@ -1392,17 +1392,17 @@
         </is>
       </c>
       <c r="F22" s="4" t="n">
-        <v>1199</v>
+        <v>999</v>
       </c>
       <c r="G22" s="3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>44550</v>
+        <v>44490</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\23.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\24.jpg</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1414,39 +1414,39 @@
     <row r="23" ht="18" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>ФУТБОЛЬНАЯ КУРТКА ДЛЯ ВЗРОСЛЫХ ЛЕГКАЯ T100 KIPSTA</t>
+          <t>Пултоник водолазка мужская теплая кашемировая шерстяная с высоким горлом больших размеров подарок</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="D23" s="6" t="inlineStr">
         <is>
-          <t>Kipsta</t>
+          <t>Pulltonic</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>Decathlon</t>
+          <t>Wildberries</t>
         </is>
       </c>
       <c r="F23" s="4" t="n">
-        <v>999</v>
+        <v>2910</v>
       </c>
       <c r="G23" s="3" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>44490</v>
+        <v>44491</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\24.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\25.jpg</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1458,20 +1458,20 @@
     <row r="24" ht="18" customHeight="1">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>Пултоник водолазка мужская теплая кашемировая шерстяная с высоким горлом больших размеров подарок</t>
+          <t>Пиджак мужской темно-синий</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D24" s="6" t="inlineStr">
         <is>
-          <t>Pulltonic</t>
+          <t>Thomas Berger</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -1480,17 +1480,17 @@
         </is>
       </c>
       <c r="F24" s="4" t="n">
-        <v>2910</v>
+        <v>8542</v>
       </c>
       <c r="G24" s="3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>44491</v>
+        <v>44492</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\25.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\26.jpg</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1502,15 +1502,15 @@
     <row r="25" ht="18" customHeight="1">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Пиджак мужской темно-синий</t>
+          <t>Утепленный стёганный жилет с трикотажным отстёгивающимся капюшоном</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="D25" s="6" t="inlineStr">
@@ -1524,17 +1524,17 @@
         </is>
       </c>
       <c r="F25" s="4" t="n">
-        <v>8542</v>
+        <v>4798</v>
       </c>
       <c r="G25" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>44492</v>
+        <v>44550</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\26.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\27.jpg</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1546,20 +1546,20 @@
     <row r="26" ht="18" customHeight="1">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>Утепленный стёганный жилет с трикотажным отстёгивающимся капюшоном</t>
+          <t xml:space="preserve">Куртка мужская зимняя повседневная, спортивная </t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="D26" s="6" t="inlineStr">
         <is>
-          <t>Thomas Berger</t>
+          <t>City Trend Store</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
@@ -1568,17 +1568,17 @@
         </is>
       </c>
       <c r="F26" s="4" t="n">
-        <v>4798</v>
+        <v>8381</v>
       </c>
       <c r="G26" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>44550</v>
+        <v>44491</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\27.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\28.jpg</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1590,20 +1590,20 @@
     <row r="27" ht="36" customHeight="1">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Куртка мужская зимняя повседневная, спортивная </t>
+          <t>Куртка мужская зимняя укороченная повседневная удобная</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D27" s="6" t="inlineStr">
         <is>
-          <t>City Trend Store</t>
+          <t>Skiff</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1612,17 +1612,17 @@
         </is>
       </c>
       <c r="F27" s="4" t="n">
-        <v>8381</v>
+        <v>4787</v>
       </c>
       <c r="G27" s="3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>44491</v>
+        <v>44492</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\28.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\29.jpg</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1631,89 +1631,8 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="36" customHeight="1">
-      <c r="A28" s="3" t="inlineStr">
-        <is>
-          <t>Куртка мужская зимняя укороченная повседневная удобная</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D28" s="6" t="inlineStr">
-        <is>
-          <t>Skiff</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>Wildberries</t>
-        </is>
-      </c>
-      <c r="F28" s="4" t="n">
-        <v>4787</v>
-      </c>
-      <c r="G28" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="H28" s="5" t="n">
-        <v>44492</v>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\29.jpg</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>М</t>
-        </is>
-      </c>
-    </row>
-    <row r="29" ht="36" customHeight="1">
-      <c r="A29" s="7" t="inlineStr">
-        <is>
-          <t>Мужская короткая зимняя куртка марки "Modis"</t>
-        </is>
-      </c>
-      <c r="B29" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="D29" s="6" t="inlineStr">
-        <is>
-          <t>Modis</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>Wildberries</t>
-        </is>
-      </c>
-      <c r="F29" s="4" t="n">
-        <v>4849</v>
-      </c>
-      <c r="G29" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="H29" s="5" t="n">
-        <v>44550</v>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\30.jpg</t>
-        </is>
-      </c>
-    </row>
+    <row r="28" ht="36" customHeight="1"/>
+    <row r="29" ht="36" customHeight="1"/>
     <row r="30" ht="18" customHeight="1"/>
     <row r="31" ht="36" customHeight="1"/>
   </sheetData>

--- a/baza.xlsx
+++ b/baza.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
@@ -488,305 +488,284 @@
       </c>
     </row>
     <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>fdsfds</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2121</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1231</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>PyQt5.QtCore.QDate(2021, 12, 27)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>C:/Users/ily06/Desktop/vizul/1.png</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>М</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="36" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>fdsfdsf</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1213213</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>XXL</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Outventure</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Спортмастер</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>PyQt5.QtCore.QDate(2021, 12, 27)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>C:/Users/ily06/Desktop/vizul/1.png</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Ж</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="36" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ушвшщыфоавлсщы</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>Куртка утепленная женская Outventure</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>Outventure</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>Спортмастер</t>
         </is>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F5" s="4" t="n">
         <v>2249</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G5" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="H2" s="5" t="n">
+      <c r="H5" s="5" t="n">
         <v>44550</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>C:\Users\ily06\Desktop\vizul\photo\1.jpg</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>Ж</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="36" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>Куртка утепленная женская Columbia Joy Peak, Plus Size</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B6" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>Columbia</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>Спортмастер</t>
         </is>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F6" s="4" t="n">
         <v>6499</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G6" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="H3" s="5" t="n">
+      <c r="H6" s="5" t="n">
         <v>44550</v>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>C:\Users\ily06\Desktop\vizul\photo\2.jpg</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>Ж</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="36" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>Джемпер флисовый женский Columbia West Bend™</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B7" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>Columbia</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>Спортмастер</t>
         </is>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F7" s="4" t="n">
         <v>3199</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G7" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="H4" s="5" t="n">
+      <c r="H7" s="5" t="n">
         <v>44550</v>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>C:\Users\ily06\Desktop\vizul\photo\3.jpg</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>Ж</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="7" t="inlineStr">
-        <is>
-          <t>Свитшот женский FILA</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
+    <row r="8" ht="36" customHeight="1">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>Брюки женские FILA</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
         <is>
           <t>FILA</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>Спортмастер</t>
         </is>
       </c>
-      <c r="F5" s="4" t="n">
-        <v>1609</v>
-      </c>
-      <c r="G5" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H5" s="5" t="n">
-        <v>44490</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\5.jpg</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Ж</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="7" t="inlineStr">
-        <is>
-          <t>Футболка женская FILA</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>FILA</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>Спортмастер</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>499</v>
-      </c>
-      <c r="G6" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="H6" s="5" t="n">
-        <v>44491</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\6.jpg</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Ж</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="7" t="inlineStr">
-        <is>
-          <t>Джемпер флисовый женский Jack Wolfskin Pine Leaf</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>Jack Wolfskin</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>Спортмастер</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>9999</v>
-      </c>
-      <c r="G7" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="H7" s="5" t="n">
-        <v>44492</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\7.jpg</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Ж</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="36" customHeight="1">
-      <c r="A8" s="7" t="inlineStr">
-        <is>
-          <t>Джемпер флисовый женский The North Face Diablo</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n">
+      <c r="F8" s="3" t="n">
+        <v>1749</v>
+      </c>
+      <c r="G8" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>The North Face</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>Спортмастер</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>9399</v>
-      </c>
-      <c r="G8" s="3" t="n">
-        <v>10</v>
-      </c>
       <c r="H8" s="5" t="n">
-        <v>44550</v>
+        <v>44489</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\8.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\4.jpg</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -798,39 +777,39 @@
     <row r="9" ht="36" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>Шалфейно-зеленое платье миди с вышивкой ришелье и V-образным вырезом в стиле ампир ASOS DESIGN Petite</t>
+          <t>Свитшот женский FILA</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D9" s="6" t="inlineStr">
         <is>
-          <t>ASOS DESIGN</t>
+          <t>FILA</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>ASOS</t>
+          <t>Спортмастер</t>
         </is>
       </c>
       <c r="F9" s="4" t="n">
-        <v>550</v>
+        <v>1609</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>44550</v>
+        <v>44490</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\9.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\5.jpg</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -842,39 +821,39 @@
     <row r="10" ht="72" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>Броское черное платье мини из атласа First Distraction The Label Plus</t>
+          <t>Футболка женская FILA</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr">
-        <is>
-          <t>First Distraction The Label Plus</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>FILA</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>ASOS</t>
+          <t>Спортмастер</t>
         </is>
       </c>
       <c r="F10" s="4" t="n">
-        <v>3390</v>
+        <v>499</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>44551</v>
+        <v>44491</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\10.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\6.jpg</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -886,11 +865,11 @@
     <row r="11" ht="36" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>Белый приталенный топ с короткими рукавами и сборками спереди ASOS DESIGN</t>
+          <t>Джемпер флисовый женский Jack Wolfskin Pine Leaf</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
@@ -899,26 +878,26 @@
       </c>
       <c r="D11" s="6" t="inlineStr">
         <is>
-          <t>ASOS DESIGN</t>
+          <t>Jack Wolfskin</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>ASOS</t>
+          <t>Спортмастер</t>
         </is>
       </c>
       <c r="F11" s="4" t="n">
-        <v>790</v>
+        <v>9999</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>44491</v>
+        <v>44492</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\12.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\7.jpg</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -930,303 +909,303 @@
     <row r="12" ht="36" customHeight="1">
       <c r="A12" s="7" t="inlineStr">
         <is>
+          <t>Джемпер флисовый женский The North Face Diablo</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="inlineStr">
+        <is>
+          <t>The North Face</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>Спортмастер</t>
+        </is>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>9399</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>44550</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>C:\Users\ily06\Desktop\vizul\photo\8.jpg</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Ж</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="54" customHeight="1">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>Шалфейно-зеленое платье миди с вышивкой ришелье и V-образным вырезом в стиле ампир ASOS DESIGN Petite</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D13" s="6" t="inlineStr">
+        <is>
+          <t>ASOS DESIGN</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>ASOS</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>550</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>44550</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>C:\Users\ily06\Desktop\vizul\photo\9.jpg</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Ж</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="54" customHeight="1">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>Броское черное платье мини из атласа First Distraction The Label Plus</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="D14" s="7" t="inlineStr">
+        <is>
+          <t>First Distraction The Label Plus</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>ASOS</t>
+        </is>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>3390</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>44551</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>C:\Users\ily06\Desktop\vizul\photo\10.jpg</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Ж</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="18" customHeight="1">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>Черные брюки Nobody's Child Zena</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D15" s="6" t="inlineStr">
+        <is>
+          <t>Nobody's Child</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>ASOS</t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>3390</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>44490</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>C:\Users\ily06\Desktop\vizul\photo\11.jpg</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Ж</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="18" customHeight="1">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>Белый приталенный топ с короткими рукавами и сборками спереди ASOS DESIGN</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D16" s="6" t="inlineStr">
+        <is>
+          <t>ASOS DESIGN</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>ASOS</t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>790</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>44491</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>C:\Users\ily06\Desktop\vizul\photo\12.jpg</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Ж</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="18" customHeight="1">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
           <t>Черный трикотажный кардиган в рубчик с объемными рукавами Topshop</t>
         </is>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B17" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="D12" s="6" t="inlineStr">
+      <c r="D17" s="6" t="inlineStr">
         <is>
           <t>TopShop</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>ASOS</t>
         </is>
       </c>
-      <c r="F12" s="4" t="n">
+      <c r="F17" s="4" t="n">
         <v>2890</v>
       </c>
-      <c r="G12" s="3" t="n">
+      <c r="G17" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="H12" s="5" t="n">
+      <c r="H17" s="5" t="n">
         <v>44492</v>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>C:\Users\ily06\Desktop\vizul\photo\13.jpg</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>Ж</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="54" customHeight="1">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>Джинсы 501 CROP</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="D13" s="6" t="inlineStr">
-        <is>
-          <t>Levi's</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>Lamoda</t>
-        </is>
-      </c>
-      <c r="F13" s="4" t="n">
-        <v>9500</v>
-      </c>
-      <c r="G13" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H13" s="5" t="n">
-        <v>44490</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\14.jpg</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>М</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="54" customHeight="1">
-      <c r="A14" s="3" t="inlineStr">
-        <is>
-          <t>Куртка утепленная Favina-1</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D14" s="6" t="inlineStr">
-        <is>
-          <t>Hugo</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>Lamoda</t>
-        </is>
-      </c>
-      <c r="F14" s="4" t="n">
-        <v>45000</v>
-      </c>
-      <c r="G14" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H14" s="5" t="n">
-        <v>44550</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\15.jpeg</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>М</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="18" customHeight="1">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>Пуховик Dorleon</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D15" s="6" t="inlineStr">
-        <is>
-          <t>Boss</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>Lamoda</t>
-        </is>
-      </c>
-      <c r="F15" s="4" t="n">
-        <v>39200</v>
-      </c>
-      <c r="G15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="5" t="n">
-        <v>44492</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\16.jpg</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>М</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="18" customHeight="1">
-      <c r="A16" s="3" t="inlineStr">
-        <is>
-          <t>Рубашка мужская</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D16" s="6" t="inlineStr">
-        <is>
-          <t>O'stin</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>Lamoda</t>
-        </is>
-      </c>
-      <c r="F16" s="4" t="n">
-        <v>2299</v>
-      </c>
-      <c r="G16" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="H16" s="5" t="n">
-        <v>44493</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\17.jpg</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>М</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="18" customHeight="1">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>ПУХОВИК TREK 500 МУЖСКОЙ FORCLAZ</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="D17" s="6" t="inlineStr">
-        <is>
-          <t>Forclaz</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>Decathlon</t>
-        </is>
-      </c>
-      <c r="F17" s="4" t="n">
-        <v>4999</v>
-      </c>
-      <c r="G17" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H17" s="5" t="n">
-        <v>44491</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\19.jpg</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>М</t>
         </is>
       </c>
     </row>
     <row r="18" ht="18" customHeight="1">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>ПУХОВИК ДЛЯ АЛЬПИНИЗМА МУЖСКОЙ MAKALU SIMOND</t>
+          <t>Джинсы 501 CROP</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>S</t>
         </is>
       </c>
       <c r="D18" s="6" t="inlineStr">
         <is>
-          <t>Simond</t>
+          <t>Levi's</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Decathlon</t>
+          <t>Lamoda</t>
         </is>
       </c>
       <c r="F18" s="4" t="n">
-        <v>10999</v>
+        <v>9500</v>
       </c>
       <c r="G18" s="3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>44492</v>
+        <v>44490</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\20.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\14.jpg</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1238,39 +1217,39 @@
     <row r="19" ht="18" customHeight="1">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>КУРТКА ПУХОВАЯ ТЕПЛАЯ ЛЫЖНАЯ МУЖСКАЯ СИНЯЯ 900 WARM WEDZE</t>
+          <t>Куртка утепленная Favina-1</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>XXL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D19" s="6" t="inlineStr">
         <is>
-          <t>Wedze</t>
+          <t>Hugo</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Decathlon</t>
+          <t>Lamoda</t>
         </is>
       </c>
       <c r="F19" s="4" t="n">
-        <v>10999</v>
+        <v>45000</v>
       </c>
       <c r="G19" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H19" s="5" t="n">
         <v>44550</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\21.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\15.jpeg</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1282,11 +1261,11 @@
     <row r="20" ht="18" customHeight="1">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>КУРТКА ВОДОНЕПРОНИЦАЕМАЯ ДЛЯ ЯХТИНГА МУЖСКАЯ SAILING 100 TRIBORD</t>
+          <t>Пуховик Dorleon</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
@@ -1295,26 +1274,26 @@
       </c>
       <c r="D20" s="6" t="inlineStr">
         <is>
-          <t>Tribord</t>
+          <t>Boss</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Decathlon</t>
+          <t>Lamoda</t>
         </is>
       </c>
       <c r="F20" s="4" t="n">
-        <v>2499</v>
+        <v>39200</v>
       </c>
       <c r="G20" s="3" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H20" s="5" t="n">
         <v>44492</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\22.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\16.jpg</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1326,39 +1305,39 @@
     <row r="21" ht="18" customHeight="1">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>ВЕТРОВКА ДЛЯ БЕГА МУЖСКАЯ RUN WIND ЧЕРНАЯ KALENJI</t>
+          <t>Рубашка мужская</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D21" s="6" t="inlineStr">
         <is>
-          <t>Kalenji</t>
+          <t>O'stin</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>Decathlon</t>
+          <t>Lamoda</t>
         </is>
       </c>
       <c r="F21" s="4" t="n">
-        <v>1199</v>
+        <v>2299</v>
       </c>
       <c r="G21" s="3" t="n">
         <v>20</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>44550</v>
+        <v>44493</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\23.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\17.jpg</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1370,39 +1349,39 @@
     <row r="22" ht="18" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>ФУТБОЛЬНАЯ КУРТКА ДЛЯ ВЗРОСЛЫХ ЛЕГКАЯ T100 KIPSTA</t>
+          <t>Свитшот Ritom_W21</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>XXL</t>
         </is>
       </c>
       <c r="D22" s="6" t="inlineStr">
         <is>
-          <t>Kipsta</t>
+          <t>Boss</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>Decathlon</t>
+          <t>Lamoda</t>
         </is>
       </c>
       <c r="F22" s="4" t="n">
-        <v>999</v>
+        <v>9100</v>
       </c>
       <c r="G22" s="3" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>44490</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\24.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\18.jpeg</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1414,29 +1393,29 @@
     <row r="23" ht="18" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>Пултоник водолазка мужская теплая кашемировая шерстяная с высоким горлом больших размеров подарок</t>
+          <t>ПУХОВИК TREK 500 МУЖСКОЙ FORCLAZ</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>S</t>
         </is>
       </c>
       <c r="D23" s="6" t="inlineStr">
         <is>
-          <t>Pulltonic</t>
+          <t>Forclaz</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>Wildberries</t>
+          <t>Decathlon</t>
         </is>
       </c>
       <c r="F23" s="4" t="n">
-        <v>2910</v>
+        <v>4999</v>
       </c>
       <c r="G23" s="3" t="n">
         <v>10</v>
@@ -1446,7 +1425,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\25.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\19.jpg</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1458,39 +1437,39 @@
     <row r="24" ht="18" customHeight="1">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>Пиджак мужской темно-синий</t>
+          <t>ПУХОВИК ДЛЯ АЛЬПИНИЗМА МУЖСКОЙ MAKALU SIMOND</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="D24" s="6" t="inlineStr">
         <is>
-          <t>Thomas Berger</t>
+          <t>Simond</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>Wildberries</t>
+          <t>Decathlon</t>
         </is>
       </c>
       <c r="F24" s="4" t="n">
-        <v>8542</v>
+        <v>10999</v>
       </c>
       <c r="G24" s="3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H24" s="5" t="n">
         <v>44492</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\26.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\20.jpg</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1502,39 +1481,39 @@
     <row r="25" ht="18" customHeight="1">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Утепленный стёганный жилет с трикотажным отстёгивающимся капюшоном</t>
+          <t>КУРТКА ПУХОВАЯ ТЕПЛАЯ ЛЫЖНАЯ МУЖСКАЯ СИНЯЯ 900 WARM WEDZE</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>XXL</t>
         </is>
       </c>
       <c r="D25" s="6" t="inlineStr">
         <is>
-          <t>Thomas Berger</t>
+          <t>Wedze</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>Wildberries</t>
+          <t>Decathlon</t>
         </is>
       </c>
       <c r="F25" s="4" t="n">
-        <v>4798</v>
+        <v>10999</v>
       </c>
       <c r="G25" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H25" s="5" t="n">
         <v>44550</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\27.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\21.jpg</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1546,39 +1525,39 @@
     <row r="26" ht="18" customHeight="1">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Куртка мужская зимняя повседневная, спортивная </t>
+          <t>КУРТКА ВОДОНЕПРОНИЦАЕМАЯ ДЛЯ ЯХТИНГА МУЖСКАЯ SAILING 100 TRIBORD</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D26" s="6" t="inlineStr">
         <is>
-          <t>City Trend Store</t>
+          <t>Tribord</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>Wildberries</t>
+          <t>Decathlon</t>
         </is>
       </c>
       <c r="F26" s="4" t="n">
-        <v>8381</v>
+        <v>2499</v>
       </c>
       <c r="G26" s="3" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>44491</v>
+        <v>44492</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\28.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\22.jpg</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1590,51 +1569,350 @@
     <row r="27" ht="36" customHeight="1">
       <c r="A27" s="3" t="inlineStr">
         <is>
+          <t>ВЕТРОВКА ДЛЯ БЕГА МУЖСКАЯ RUN WIND ЧЕРНАЯ KALENJI</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D27" s="6" t="inlineStr">
+        <is>
+          <t>Kalenji</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>Decathlon</t>
+        </is>
+      </c>
+      <c r="F27" s="4" t="n">
+        <v>1199</v>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="H27" s="5" t="n">
+        <v>44550</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>C:\Users\ily06\Desktop\vizul\photo\23.jpg</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>М</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="36" customHeight="1">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>ФУТБОЛЬНАЯ КУРТКА ДЛЯ ВЗРОСЛЫХ ЛЕГКАЯ T100 KIPSTA</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D28" s="6" t="inlineStr">
+        <is>
+          <t>Kipsta</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>Decathlon</t>
+        </is>
+      </c>
+      <c r="F28" s="4" t="n">
+        <v>999</v>
+      </c>
+      <c r="G28" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="H28" s="5" t="n">
+        <v>44490</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>C:\Users\ily06\Desktop\vizul\photo\24.jpg</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>М</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="36" customHeight="1">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>Пултоник водолазка мужская теплая кашемировая шерстяная с высоким горлом больших размеров подарок</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="D29" s="6" t="inlineStr">
+        <is>
+          <t>Pulltonic</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>Wildberries</t>
+        </is>
+      </c>
+      <c r="F29" s="4" t="n">
+        <v>2910</v>
+      </c>
+      <c r="G29" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H29" s="5" t="n">
+        <v>44491</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>C:\Users\ily06\Desktop\vizul\photo\25.jpg</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>М</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="18" customHeight="1">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>Пиджак мужской темно-синий</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D30" s="6" t="inlineStr">
+        <is>
+          <t>Thomas Berger</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>Wildberries</t>
+        </is>
+      </c>
+      <c r="F30" s="4" t="n">
+        <v>8542</v>
+      </c>
+      <c r="G30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" s="5" t="n">
+        <v>44492</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>C:\Users\ily06\Desktop\vizul\photo\26.jpg</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>М</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="36" customHeight="1">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>Утепленный стёганный жилет с трикотажным отстёгивающимся капюшоном</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D31" s="6" t="inlineStr">
+        <is>
+          <t>Thomas Berger</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>Wildberries</t>
+        </is>
+      </c>
+      <c r="F31" s="4" t="n">
+        <v>4798</v>
+      </c>
+      <c r="G31" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H31" s="5" t="n">
+        <v>44550</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>C:\Users\ily06\Desktop\vizul\photo\27.jpg</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>М</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Куртка мужская зимняя повседневная, спортивная </t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="D32" s="6" t="inlineStr">
+        <is>
+          <t>City Trend Store</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>Wildberries</t>
+        </is>
+      </c>
+      <c r="F32" s="4" t="n">
+        <v>8381</v>
+      </c>
+      <c r="G32" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H32" s="5" t="n">
+        <v>44491</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>C:\Users\ily06\Desktop\vizul\photo\28.jpg</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>М</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
           <t>Куртка мужская зимняя укороченная повседневная удобная</t>
         </is>
       </c>
-      <c r="B27" s="2" t="n">
+      <c r="B33" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="C33" s="2" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="D27" s="6" t="inlineStr">
+      <c r="D33" s="6" t="inlineStr">
         <is>
           <t>Skiff</t>
         </is>
       </c>
-      <c r="E27" s="2" t="inlineStr">
+      <c r="E33" s="2" t="inlineStr">
         <is>
           <t>Wildberries</t>
         </is>
       </c>
-      <c r="F27" s="4" t="n">
+      <c r="F33" s="4" t="n">
         <v>4787</v>
       </c>
-      <c r="G27" s="3" t="n">
+      <c r="G33" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="H27" s="5" t="n">
+      <c r="H33" s="5" t="n">
         <v>44492</v>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>C:\Users\ily06\Desktop\vizul\photo\29.jpg</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>М</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="36" customHeight="1"/>
-    <row r="29" ht="36" customHeight="1"/>
-    <row r="30" ht="18" customHeight="1"/>
-    <row r="31" ht="36" customHeight="1"/>
+    <row r="34">
+      <c r="A34" s="7" t="inlineStr">
+        <is>
+          <t>Мужская короткая зимняя куртка марки "Modis"</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="D34" s="6" t="inlineStr">
+        <is>
+          <t>Modis</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>Wildberries</t>
+        </is>
+      </c>
+      <c r="F34" s="4" t="n">
+        <v>4849</v>
+      </c>
+      <c r="G34" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H34" s="5" t="n">
+        <v>44550</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>C:\Users\ily06\Desktop\vizul\photo\30.jpg</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/baza.xlsx
+++ b/baza.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
@@ -490,32 +490,32 @@
     <row r="2" ht="18" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>fdsfds</t>
+          <t>gdffd</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2121</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>S</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>Outventure</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>Lamoda</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1231</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>PyQt5.QtCore.QDate(2021, 12, 27)</t>
+          <t>27.12.2021</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -540,49 +540,41 @@
       </c>
     </row>
     <row r="3" ht="36" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>fdsfdsf</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1213213</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>XXL</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Куртка утепленная женская Outventure</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>Outventure</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>Спортмастер</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PyQt5.QtCore.QDate(2021, 12, 27)</t>
-        </is>
+      <c r="F3" s="4" t="n">
+        <v>2249</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>44550</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C:/Users/ily06/Desktop/vizul/1.png</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\1.jpg</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -592,20 +584,57 @@
       </c>
     </row>
     <row r="4" ht="36" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ушвшщыфоавлсщы</t>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Куртка утепленная женская Columbia Joy Peak, Plus Size</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>Columbia</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Спортмастер</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>6499</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>44550</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>C:\Users\ily06\Desktop\vizul\photo\2.jpg</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Ж</t>
         </is>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Куртка утепленная женская Outventure</t>
+          <t>Джемпер флисовый женский Columbia West Bend™</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
@@ -614,7 +643,7 @@
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>Outventure</t>
+          <t>Columbia</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -623,17 +652,17 @@
         </is>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2249</v>
+        <v>3199</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H5" s="5" t="n">
         <v>44550</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\1.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\3.jpg</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -643,85 +672,85 @@
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Куртка утепленная женская Columbia Joy Peak, Plus Size</t>
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>Брюки женские FILA</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>FILA</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>Спортмастер</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>1749</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>44489</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>C:\Users\ily06\Desktop\vizul\photo\4.jpg</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Ж</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>Свитшот женский FILA</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
           <t>L</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>Columbia</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>FILA</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>Спортмастер</t>
         </is>
       </c>
-      <c r="F6" s="4" t="n">
-        <v>6499</v>
-      </c>
-      <c r="G6" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="H6" s="5" t="n">
-        <v>44550</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\2.jpg</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Ж</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Джемпер флисовый женский Columbia West Bend™</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>Columbia</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>Спортмастер</t>
-        </is>
-      </c>
       <c r="F7" s="4" t="n">
-        <v>3199</v>
+        <v>1609</v>
       </c>
       <c r="G7" s="3" t="n">
         <v>10</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>44550</v>
+        <v>44490</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\3.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\5.jpg</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -731,13 +760,13 @@
       </c>
     </row>
     <row r="8" ht="36" customHeight="1">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>Брюки женские FILA</t>
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>Футболка женская FILA</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
@@ -754,18 +783,18 @@
           <t>Спортмастер</t>
         </is>
       </c>
-      <c r="F8" s="3" t="n">
-        <v>1749</v>
+      <c r="F8" s="4" t="n">
+        <v>499</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>44489</v>
+        <v>44491</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\4.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\6.jpg</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -777,39 +806,39 @@
     <row r="9" ht="36" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>Свитшот женский FILA</t>
+          <t>Джемпер флисовый женский Jack Wolfskin Pine Leaf</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>Jack Wolfskin</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>Спортмастер</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>9999</v>
+      </c>
+      <c r="G9" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>FILA</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>Спортмастер</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>1609</v>
-      </c>
-      <c r="G9" s="3" t="n">
-        <v>10</v>
-      </c>
       <c r="H9" s="5" t="n">
-        <v>44490</v>
+        <v>44492</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\5.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\7.jpg</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -821,20 +850,20 @@
     <row r="10" ht="72" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>Футболка женская FILA</t>
+          <t>Джемпер флисовый женский The North Face Diablo</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D10" s="6" t="inlineStr">
         <is>
-          <t>FILA</t>
+          <t>The North Face</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -843,17 +872,17 @@
         </is>
       </c>
       <c r="F10" s="4" t="n">
-        <v>499</v>
+        <v>9399</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>44491</v>
+        <v>44550</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\6.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\8.jpg</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -865,11 +894,11 @@
     <row r="11" ht="36" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>Джемпер флисовый женский Jack Wolfskin Pine Leaf</t>
+          <t>Шалфейно-зеленое платье миди с вышивкой ришелье и V-образным вырезом в стиле ампир ASOS DESIGN Petite</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
@@ -878,26 +907,26 @@
       </c>
       <c r="D11" s="6" t="inlineStr">
         <is>
-          <t>Jack Wolfskin</t>
+          <t>ASOS DESIGN</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>Спортмастер</t>
+          <t>ASOS</t>
         </is>
       </c>
       <c r="F11" s="4" t="n">
-        <v>9999</v>
+        <v>550</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>44492</v>
+        <v>44550</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\7.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\9.jpg</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -909,39 +938,39 @@
     <row r="12" ht="36" customHeight="1">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>Джемпер флисовый женский The North Face Diablo</t>
+          <t>Броское черное платье мини из атласа First Distraction The Label Plus</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D12" s="6" t="inlineStr">
-        <is>
-          <t>The North Face</t>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr">
+        <is>
+          <t>First Distraction The Label Plus</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>Спортмастер</t>
+          <t>ASOS</t>
         </is>
       </c>
       <c r="F12" s="4" t="n">
-        <v>9399</v>
+        <v>3390</v>
       </c>
       <c r="G12" s="3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>44550</v>
+        <v>44551</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\8.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\10.jpg</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -953,20 +982,20 @@
     <row r="13" ht="54" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>Шалфейно-зеленое платье миди с вышивкой ришелье и V-образным вырезом в стиле ампир ASOS DESIGN Petite</t>
+          <t>Черные брюки Nobody's Child Zena</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D13" s="6" t="inlineStr">
         <is>
-          <t>ASOS DESIGN</t>
+          <t>Nobody's Child</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -975,17 +1004,17 @@
         </is>
       </c>
       <c r="F13" s="4" t="n">
-        <v>550</v>
+        <v>3390</v>
       </c>
       <c r="G13" s="3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>44550</v>
+        <v>44490</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\9.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\11.jpg</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -997,20 +1026,20 @@
     <row r="14" ht="54" customHeight="1">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>Броское черное платье мини из атласа First Distraction The Label Plus</t>
+          <t>Белый приталенный топ с короткими рукавами и сборками спереди ASOS DESIGN</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="D14" s="7" t="inlineStr">
-        <is>
-          <t>First Distraction The Label Plus</t>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D14" s="6" t="inlineStr">
+        <is>
+          <t>ASOS DESIGN</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1019,17 +1048,17 @@
         </is>
       </c>
       <c r="F14" s="4" t="n">
-        <v>3390</v>
+        <v>790</v>
       </c>
       <c r="G14" s="3" t="n">
         <v>15</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>44551</v>
+        <v>44491</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\10.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\12.jpg</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1041,152 +1070,152 @@
     <row r="15" ht="18" customHeight="1">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>Черные брюки Nobody's Child Zena</t>
+          <t>Черный трикотажный кардиган в рубчик с объемными рукавами Topshop</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D15" s="6" t="inlineStr">
+        <is>
+          <t>TopShop</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>ASOS</t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>2890</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>44492</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>C:\Users\ily06\Desktop\vizul\photo\13.jpg</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Ж</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="18" customHeight="1">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>Джинсы 501 CROP</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D16" s="6" t="inlineStr">
+        <is>
+          <t>Levi's</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>Lamoda</t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>9500</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>44490</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>C:\Users\ily06\Desktop\vizul\photo\14.jpg</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>М</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="18" customHeight="1">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>Куртка утепленная Favina-1</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
           <t>M</t>
         </is>
       </c>
-      <c r="D15" s="6" t="inlineStr">
-        <is>
-          <t>Nobody's Child</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>ASOS</t>
-        </is>
-      </c>
-      <c r="F15" s="4" t="n">
-        <v>3390</v>
-      </c>
-      <c r="G15" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H15" s="5" t="n">
-        <v>44490</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\11.jpg</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Ж</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="18" customHeight="1">
-      <c r="A16" s="7" t="inlineStr">
-        <is>
-          <t>Белый приталенный топ с короткими рукавами и сборками спереди ASOS DESIGN</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="D16" s="6" t="inlineStr">
-        <is>
-          <t>ASOS DESIGN</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>ASOS</t>
-        </is>
-      </c>
-      <c r="F16" s="4" t="n">
-        <v>790</v>
-      </c>
-      <c r="G16" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="H16" s="5" t="n">
-        <v>44491</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\12.jpg</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Ж</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="18" customHeight="1">
-      <c r="A17" s="7" t="inlineStr">
-        <is>
-          <t>Черный трикотажный кардиган в рубчик с объемными рукавами Topshop</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
       <c r="D17" s="6" t="inlineStr">
         <is>
-          <t>TopShop</t>
+          <t>Hugo</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>ASOS</t>
+          <t>Lamoda</t>
         </is>
       </c>
       <c r="F17" s="4" t="n">
-        <v>2890</v>
+        <v>45000</v>
       </c>
       <c r="G17" s="3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>44492</v>
+        <v>44550</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\13.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\15.jpeg</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Ж</t>
+          <t>М</t>
         </is>
       </c>
     </row>
     <row r="18" ht="18" customHeight="1">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>Джинсы 501 CROP</t>
+          <t>Пуховик Dorleon</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D18" s="6" t="inlineStr">
         <is>
-          <t>Levi's</t>
+          <t>Boss</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -1195,17 +1224,17 @@
         </is>
       </c>
       <c r="F18" s="4" t="n">
-        <v>9500</v>
+        <v>39200</v>
       </c>
       <c r="G18" s="3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>44490</v>
+        <v>44492</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\14.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\16.jpg</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1217,20 +1246,20 @@
     <row r="19" ht="18" customHeight="1">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>Куртка утепленная Favina-1</t>
+          <t>Рубашка мужская</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D19" s="6" t="inlineStr">
         <is>
-          <t>Hugo</t>
+          <t>O'stin</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1239,17 +1268,17 @@
         </is>
       </c>
       <c r="F19" s="4" t="n">
-        <v>45000</v>
+        <v>2299</v>
       </c>
       <c r="G19" s="3" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>44550</v>
+        <v>44493</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\15.jpeg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\17.jpg</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1261,15 +1290,15 @@
     <row r="20" ht="18" customHeight="1">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>Пуховик Dorleon</t>
+          <t>Свитшот Ritom_W21</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XXL</t>
         </is>
       </c>
       <c r="D20" s="6" t="inlineStr">
@@ -1283,17 +1312,17 @@
         </is>
       </c>
       <c r="F20" s="4" t="n">
-        <v>39200</v>
+        <v>9100</v>
       </c>
       <c r="G20" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>44492</v>
+        <v>44490</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\16.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\18.jpeg</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1305,39 +1334,39 @@
     <row r="21" ht="18" customHeight="1">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>Рубашка мужская</t>
+          <t>ПУХОВИК TREK 500 МУЖСКОЙ FORCLAZ</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="D21" s="6" t="inlineStr">
         <is>
-          <t>O'stin</t>
+          <t>Forclaz</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>Lamoda</t>
+          <t>Decathlon</t>
         </is>
       </c>
       <c r="F21" s="4" t="n">
-        <v>2299</v>
+        <v>4999</v>
       </c>
       <c r="G21" s="3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>44493</v>
+        <v>44491</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\17.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\19.jpg</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1349,39 +1378,39 @@
     <row r="22" ht="18" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>Свитшот Ritom_W21</t>
+          <t>ПУХОВИК ДЛЯ АЛЬПИНИЗМА МУЖСКОЙ MAKALU SIMOND</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>XXL</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="D22" s="6" t="inlineStr">
         <is>
-          <t>Boss</t>
+          <t>Simond</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>Lamoda</t>
+          <t>Decathlon</t>
         </is>
       </c>
       <c r="F22" s="4" t="n">
-        <v>9100</v>
+        <v>10999</v>
       </c>
       <c r="G22" s="3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>44490</v>
+        <v>44492</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\18.jpeg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\20.jpg</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1393,20 +1422,20 @@
     <row r="23" ht="18" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>ПУХОВИК TREK 500 МУЖСКОЙ FORCLAZ</t>
+          <t>КУРТКА ПУХОВАЯ ТЕПЛАЯ ЛЫЖНАЯ МУЖСКАЯ СИНЯЯ 900 WARM WEDZE</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>XXL</t>
         </is>
       </c>
       <c r="D23" s="6" t="inlineStr">
         <is>
-          <t>Forclaz</t>
+          <t>Wedze</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1415,17 +1444,17 @@
         </is>
       </c>
       <c r="F23" s="4" t="n">
-        <v>4999</v>
+        <v>10999</v>
       </c>
       <c r="G23" s="3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>44491</v>
+        <v>44550</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\19.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\21.jpg</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1437,20 +1466,20 @@
     <row r="24" ht="18" customHeight="1">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>ПУХОВИК ДЛЯ АЛЬПИНИЗМА МУЖСКОЙ MAKALU SIMOND</t>
+          <t>КУРТКА ВОДОНЕПРОНИЦАЕМАЯ ДЛЯ ЯХТИНГА МУЖСКАЯ SAILING 100 TRIBORD</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D24" s="6" t="inlineStr">
         <is>
-          <t>Simond</t>
+          <t>Tribord</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -1459,17 +1488,17 @@
         </is>
       </c>
       <c r="F24" s="4" t="n">
-        <v>10999</v>
+        <v>2499</v>
       </c>
       <c r="G24" s="3" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H24" s="5" t="n">
         <v>44492</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\20.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\22.jpg</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1481,20 +1510,20 @@
     <row r="25" ht="18" customHeight="1">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>КУРТКА ПУХОВАЯ ТЕПЛАЯ ЛЫЖНАЯ МУЖСКАЯ СИНЯЯ 900 WARM WEDZE</t>
+          <t>ВЕТРОВКА ДЛЯ БЕГА МУЖСКАЯ RUN WIND ЧЕРНАЯ KALENJI</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>XXL</t>
+          <t>S</t>
         </is>
       </c>
       <c r="D25" s="6" t="inlineStr">
         <is>
-          <t>Wedze</t>
+          <t>Kalenji</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1503,17 +1532,17 @@
         </is>
       </c>
       <c r="F25" s="4" t="n">
-        <v>10999</v>
+        <v>1199</v>
       </c>
       <c r="G25" s="3" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H25" s="5" t="n">
         <v>44550</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\21.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\23.jpg</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1525,20 +1554,20 @@
     <row r="26" ht="18" customHeight="1">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>КУРТКА ВОДОНЕПРОНИЦАЕМАЯ ДЛЯ ЯХТИНГА МУЖСКАЯ SAILING 100 TRIBORD</t>
+          <t>ФУТБОЛЬНАЯ КУРТКА ДЛЯ ВЗРОСЛЫХ ЛЕГКАЯ T100 KIPSTA</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D26" s="6" t="inlineStr">
         <is>
-          <t>Tribord</t>
+          <t>Kipsta</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
@@ -1547,17 +1576,17 @@
         </is>
       </c>
       <c r="F26" s="4" t="n">
-        <v>2499</v>
+        <v>999</v>
       </c>
       <c r="G26" s="3" t="n">
         <v>15</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>44492</v>
+        <v>44490</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\22.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\24.jpg</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1569,39 +1598,39 @@
     <row r="27" ht="36" customHeight="1">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>ВЕТРОВКА ДЛЯ БЕГА МУЖСКАЯ RUN WIND ЧЕРНАЯ KALENJI</t>
+          <t>Пултоник водолазка мужская теплая кашемировая шерстяная с высоким горлом больших размеров подарок</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="D27" s="6" t="inlineStr">
         <is>
-          <t>Kalenji</t>
+          <t>Pulltonic</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>Decathlon</t>
+          <t>Wildberries</t>
         </is>
       </c>
       <c r="F27" s="4" t="n">
-        <v>1199</v>
+        <v>2910</v>
       </c>
       <c r="G27" s="3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>44550</v>
+        <v>44491</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\23.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\25.jpg</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1613,39 +1642,39 @@
     <row r="28" ht="36" customHeight="1">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>ФУТБОЛЬНАЯ КУРТКА ДЛЯ ВЗРОСЛЫХ ЛЕГКАЯ T100 KIPSTA</t>
+          <t>Пиджак мужской темно-синий</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D28" s="6" t="inlineStr">
         <is>
-          <t>Kipsta</t>
+          <t>Thomas Berger</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Decathlon</t>
+          <t>Wildberries</t>
         </is>
       </c>
       <c r="F28" s="4" t="n">
-        <v>999</v>
+        <v>8542</v>
       </c>
       <c r="G28" s="3" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>44490</v>
+        <v>44492</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\24.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\26.jpg</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1657,20 +1686,20 @@
     <row r="29" ht="36" customHeight="1">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>Пултоник водолазка мужская теплая кашемировая шерстяная с высоким горлом больших размеров подарок</t>
+          <t>Утепленный стёганный жилет с трикотажным отстёгивающимся капюшоном</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>S</t>
         </is>
       </c>
       <c r="D29" s="6" t="inlineStr">
         <is>
-          <t>Pulltonic</t>
+          <t>Thomas Berger</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
@@ -1679,17 +1708,17 @@
         </is>
       </c>
       <c r="F29" s="4" t="n">
-        <v>2910</v>
+        <v>4798</v>
       </c>
       <c r="G29" s="3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>44491</v>
+        <v>44550</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\25.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\27.jpg</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1701,20 +1730,20 @@
     <row r="30" ht="18" customHeight="1">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>Пиджак мужской темно-синий</t>
+          <t xml:space="preserve">Куртка мужская зимняя повседневная, спортивная </t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="D30" s="6" t="inlineStr">
         <is>
-          <t>Thomas Berger</t>
+          <t>City Trend Store</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
@@ -1723,17 +1752,17 @@
         </is>
       </c>
       <c r="F30" s="4" t="n">
-        <v>8542</v>
+        <v>8381</v>
       </c>
       <c r="G30" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>44492</v>
+        <v>44491</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\26.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\28.jpg</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1745,20 +1774,20 @@
     <row r="31" ht="36" customHeight="1">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>Утепленный стёганный жилет с трикотажным отстёгивающимся капюшоном</t>
+          <t>Куртка мужская зимняя укороченная повседневная удобная</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D31" s="6" t="inlineStr">
         <is>
-          <t>Thomas Berger</t>
+          <t>Skiff</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
@@ -1767,147 +1796,59 @@
         </is>
       </c>
       <c r="F31" s="4" t="n">
-        <v>4798</v>
+        <v>4787</v>
       </c>
       <c r="G31" s="3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H31" s="5" t="n">
+        <v>44492</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>C:\Users\ily06\Desktop\vizul\photo\29.jpg</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>М</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="inlineStr">
+        <is>
+          <t>Мужская короткая зимняя куртка марки "Modis"</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="D32" s="6" t="inlineStr">
+        <is>
+          <t>Modis</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>Wildberries</t>
+        </is>
+      </c>
+      <c r="F32" s="4" t="n">
+        <v>4849</v>
+      </c>
+      <c r="G32" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H32" s="5" t="n">
         <v>44550</v>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\27.jpg</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>М</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Куртка мужская зимняя повседневная, спортивная </t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="D32" s="6" t="inlineStr">
-        <is>
-          <t>City Trend Store</t>
-        </is>
-      </c>
-      <c r="E32" s="2" t="inlineStr">
-        <is>
-          <t>Wildberries</t>
-        </is>
-      </c>
-      <c r="F32" s="4" t="n">
-        <v>8381</v>
-      </c>
-      <c r="G32" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="H32" s="5" t="n">
-        <v>44491</v>
-      </c>
       <c r="I32" t="inlineStr">
-        <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\28.jpg</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>М</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="inlineStr">
-        <is>
-          <t>Куртка мужская зимняя укороченная повседневная удобная</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="C33" s="2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D33" s="6" t="inlineStr">
-        <is>
-          <t>Skiff</t>
-        </is>
-      </c>
-      <c r="E33" s="2" t="inlineStr">
-        <is>
-          <t>Wildberries</t>
-        </is>
-      </c>
-      <c r="F33" s="4" t="n">
-        <v>4787</v>
-      </c>
-      <c r="G33" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="H33" s="5" t="n">
-        <v>44492</v>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\29.jpg</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>М</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="7" t="inlineStr">
-        <is>
-          <t>Мужская короткая зимняя куртка марки "Modis"</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="C34" s="2" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="D34" s="6" t="inlineStr">
-        <is>
-          <t>Modis</t>
-        </is>
-      </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>Wildberries</t>
-        </is>
-      </c>
-      <c r="F34" s="4" t="n">
-        <v>4849</v>
-      </c>
-      <c r="G34" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="H34" s="5" t="n">
-        <v>44550</v>
-      </c>
-      <c r="I34" t="inlineStr">
         <is>
           <t>C:\Users\ily06\Desktop\vizul\photo\30.jpg</t>
         </is>

--- a/baza.xlsx
+++ b/baza.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K1" sqref="A1:K1"/>
@@ -489,37 +489,37 @@
     <row r="2" ht="18" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>тест</t>
+          <t>dhkjsfdlkjsf</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>777</t>
+          <t>3219832189</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>S</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outventure</t>
+          <t>Jack Wolfskin</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Lamoda</t>
+          <t>ASOS</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>21131</t>
+          <t>231321</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -541,22 +541,22 @@
     <row r="3" ht="36" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>dsfsfds</t>
+          <t>выфьоаловрыроапвы</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>132143432</t>
+          <t>1392030</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Jack Wolfskin</t>
+          <t>Columbia</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>23213</t>
+          <t>213213</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -593,449 +593,409 @@
     <row r="4" ht="36" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>212323</t>
+          <t>bvcbvxc</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>32432</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Columbia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ASOS</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>21321</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2021,12,27</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>C:/Users/ily06/Desktop/vizul/1.png</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>М</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Куртка утепленная женская Outventure</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Outventure</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>Спортмастер</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>2249</v>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>44550</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>C:\Users\ily06\Desktop\vizul\photo\1.jpg</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Ж</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Куртка утепленная женская Columbia Joy Peak, Plus Size</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Columbia</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>Спортмастер</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>6499</v>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>44550</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>C:\Users\ily06\Desktop\vizul\photo\2.jpg</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Ж</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Джемпер флисовый женский Columbia West Bend™</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>Columbia</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>Спортмастер</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>3199</v>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>44550</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>C:\Users\ily06\Desktop\vizul\photo\3.jpg</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Ж</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="36" customHeight="1">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>Брюки женские FILA</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
           <t>M</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Columbia</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>FILA</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>Спортмастер</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>21321</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021,12,27</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>C:/Users/ily06/Desktop/vizul/1.png</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>М</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>dczxcd</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>21321</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>XS</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Outventure</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="F8" s="3" t="n">
+        <v>1749</v>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>44489</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>C:\Users\ily06\Desktop\vizul\photo\4.jpg</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Ж</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="36" customHeight="1">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>Свитшот женский FILA</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>FILA</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>Спортмастер</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>12313</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021,12,27</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>C:/Users/ily06/Desktop/vizul/1.png</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>М</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>dsadsadadsafgfhgfjhgjgh</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1231</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>XS</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Columbia</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ASOS</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1321321454</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021,2,27</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>C:/Users/ily06/Desktop/vizul/1.png</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>М</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>dsfdsf</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>32121</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>XS</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Outventure</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ASOS</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1321</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021,12,27</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>C:/Users/ily06/Desktop/vizul/1.png</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>М</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="36" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>fdsfd</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>324</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="F9" s="4" t="n">
+        <v>1609</v>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>44490</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>C:\Users\ily06\Desktop\vizul\photo\5.jpg</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Ж</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="72" customHeight="1">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>Футболка женская FILA</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>FILA</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>Спортмастер</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>499</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>44491</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>C:\Users\ily06\Desktop\vizul\photo\6.jpg</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Ж</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="36" customHeight="1">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>Джемпер флисовый женский Jack Wolfskin Pine Leaf</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D11" s="6" t="inlineStr">
         <is>
           <t>Jack Wolfskin</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1231</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021,02,27</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>C:/Users/ily06/Desktop/vizul/1.png</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>М</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="36" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>dfsafdsagdghfdh</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>12121321</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Columbia</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>Спортмастер</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>321321</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021,12,27</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>C:/Users/ily06/Desktop/vizul/1.png</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>М</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="72" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>dfsfdsfdsfdsf</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>21212</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>XS</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Jack Wolfskin</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="F11" s="4" t="n">
+        <v>9999</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>44492</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>C:\Users\ily06\Desktop\vizul\photo\7.jpg</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Ж</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="36" customHeight="1">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>Джемпер флисовый женский The North Face Diablo</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="inlineStr">
+        <is>
+          <t>The North Face</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>Спортмастер</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>321321</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021,12,27</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>C:/Users/ily06/Desktop/vizul/1.png</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>М</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="36" customHeight="1">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>Куртка утепленная женская Outventure</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>Outventure</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>Спортмастер</t>
-        </is>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>2249</v>
-      </c>
-      <c r="G11" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="H11" s="5" t="n">
-        <v>44550</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\1.jpg</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Ж</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="36" customHeight="1">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>Куртка утепленная женская Columbia Joy Peak, Plus Size</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>Columbia</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>Спортмастер</t>
-        </is>
-      </c>
       <c r="F12" s="4" t="n">
-        <v>6499</v>
-      </c>
-      <c r="G12" s="3" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+        <v>9399</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>10</v>
       </c>
       <c r="H12" s="5" t="n">
         <v>44550</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\2.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\8.jpg</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1045,43 +1005,41 @@
       </c>
     </row>
     <row r="13" ht="54" customHeight="1">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>Джемпер флисовый женский Columbia West Bend™</t>
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>Шалфейно-зеленое платье миди с вышивкой ришелье и V-образным вырезом в стиле ампир ASOS DESIGN Petite</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>Columbia</t>
+      <c r="D13" s="6" t="inlineStr">
+        <is>
+          <t>ASOS DESIGN</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>Спортмастер</t>
+          <t>ASOS</t>
         </is>
       </c>
       <c r="F13" s="4" t="n">
-        <v>3199</v>
-      </c>
-      <c r="G13" s="3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+        <v>550</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>20</v>
       </c>
       <c r="H13" s="5" t="n">
         <v>44550</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\3.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\9.jpg</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1091,41 +1049,41 @@
       </c>
     </row>
     <row r="14" ht="54" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>Брюки женские FILA</t>
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>Броское черное платье мини из атласа First Distraction The Label Plus</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D14" s="6" t="inlineStr">
-        <is>
-          <t>FILA</t>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="D14" s="7" t="inlineStr">
+        <is>
+          <t>First Distraction The Label Plus</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>Спортмастер</t>
-        </is>
-      </c>
-      <c r="F14" s="3" t="n">
-        <v>1749</v>
+          <t>ASOS</t>
+        </is>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>3390</v>
       </c>
       <c r="G14" s="3" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>44489</v>
+        <v>44551</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\4.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\10.jpg</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1137,29 +1095,29 @@
     <row r="15" ht="18" customHeight="1">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>Свитшот женский FILA</t>
+          <t>Черные брюки Nobody's Child Zena</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D15" s="6" t="inlineStr">
         <is>
-          <t>FILA</t>
+          <t>Nobody's Child</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>Спортмастер</t>
+          <t>ASOS</t>
         </is>
       </c>
       <c r="F15" s="4" t="n">
-        <v>1609</v>
+        <v>3390</v>
       </c>
       <c r="G15" s="3" t="n">
         <v>10</v>
@@ -1169,7 +1127,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\5.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\11.jpg</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1181,39 +1139,39 @@
     <row r="16" ht="18" customHeight="1">
       <c r="A16" s="7" t="inlineStr">
         <is>
-          <t>Футболка женская FILA</t>
+          <t>Белый приталенный топ с короткими рукавами и сборками спереди ASOS DESIGN</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="D16" s="6" t="inlineStr">
         <is>
-          <t>FILA</t>
+          <t>ASOS DESIGN</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>Спортмастер</t>
+          <t>ASOS</t>
         </is>
       </c>
       <c r="F16" s="4" t="n">
-        <v>499</v>
+        <v>790</v>
       </c>
       <c r="G16" s="3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H16" s="5" t="n">
         <v>44491</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\6.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\12.jpg</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1225,39 +1183,39 @@
     <row r="17" ht="18" customHeight="1">
       <c r="A17" s="7" t="inlineStr">
         <is>
-          <t>Джемпер флисовый женский Jack Wolfskin Pine Leaf</t>
+          <t>Черный трикотажный кардиган в рубчик с объемными рукавами Topshop</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D17" s="6" t="inlineStr">
         <is>
-          <t>Jack Wolfskin</t>
+          <t>TopShop</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>Спортмастер</t>
+          <t>ASOS</t>
         </is>
       </c>
       <c r="F17" s="4" t="n">
-        <v>9999</v>
+        <v>2890</v>
       </c>
       <c r="G17" s="3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H17" s="5" t="n">
         <v>44492</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\7.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\13.jpg</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1267,305 +1225,305 @@
       </c>
     </row>
     <row r="18" ht="18" customHeight="1">
-      <c r="A18" s="7" t="inlineStr">
-        <is>
-          <t>Джемпер флисовый женский The North Face Diablo</t>
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Джинсы 501 CROP</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="D18" s="6" t="inlineStr">
         <is>
-          <t>The North Face</t>
+          <t>Levi's</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Спортмастер</t>
+          <t>Lamoda</t>
         </is>
       </c>
       <c r="F18" s="4" t="n">
-        <v>9399</v>
+        <v>9500</v>
       </c>
       <c r="G18" s="3" t="n">
         <v>10</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>44550</v>
+        <v>44490</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\8.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\14.jpg</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Ж</t>
+          <t>М</t>
         </is>
       </c>
     </row>
     <row r="19" ht="18" customHeight="1">
-      <c r="A19" s="7" t="inlineStr">
-        <is>
-          <t>Шалфейно-зеленое платье миди с вышивкой ришелье и V-образным вырезом в стиле ампир ASOS DESIGN Petite</t>
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>Куртка утепленная Favina-1</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D19" s="6" t="inlineStr">
         <is>
-          <t>ASOS DESIGN</t>
+          <t>Hugo</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>ASOS</t>
+          <t>Lamoda</t>
         </is>
       </c>
       <c r="F19" s="4" t="n">
-        <v>550</v>
+        <v>45000</v>
       </c>
       <c r="G19" s="3" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H19" s="5" t="n">
         <v>44550</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\9.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\15.jpeg</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Ж</t>
+          <t>М</t>
         </is>
       </c>
     </row>
     <row r="20" ht="18" customHeight="1">
-      <c r="A20" s="7" t="inlineStr">
-        <is>
-          <t>Броское черное платье мини из атласа First Distraction The Label Plus</t>
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>Пуховик Dorleon</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D20" s="6" t="inlineStr">
+        <is>
+          <t>Boss</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>Lamoda</t>
+        </is>
+      </c>
+      <c r="F20" s="4" t="n">
+        <v>39200</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>44492</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>C:\Users\ily06\Desktop\vizul\photo\16.jpg</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>М</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="18" customHeight="1">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>Рубашка мужская</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D21" s="6" t="inlineStr">
+        <is>
+          <t>O'stin</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>Lamoda</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="n">
+        <v>2299</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>44493</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>C:\Users\ily06\Desktop\vizul\photo\17.jpg</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>М</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="18" customHeight="1">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>Свитшот Ritom_W21</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>XXL</t>
+        </is>
+      </c>
+      <c r="D22" s="6" t="inlineStr">
+        <is>
+          <t>Boss</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>Lamoda</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="n">
+        <v>9100</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>44490</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>C:\Users\ily06\Desktop\vizul\photo\18.jpeg</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>М</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="18" customHeight="1">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>ПУХОВИК TREK 500 МУЖСКОЙ FORCLAZ</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D23" s="6" t="inlineStr">
+        <is>
+          <t>Forclaz</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>Decathlon</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="n">
+        <v>4999</v>
+      </c>
+      <c r="G23" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="D20" s="7" t="inlineStr">
-        <is>
-          <t>First Distraction The Label Plus</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>ASOS</t>
-        </is>
-      </c>
-      <c r="F20" s="4" t="n">
-        <v>3390</v>
-      </c>
-      <c r="G20" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="H20" s="5" t="n">
-        <v>44551</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\10.jpg</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Ж</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="18" customHeight="1">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>Черные брюки Nobody's Child Zena</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D21" s="6" t="inlineStr">
-        <is>
-          <t>Nobody's Child</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>ASOS</t>
-        </is>
-      </c>
-      <c r="F21" s="4" t="n">
-        <v>3390</v>
-      </c>
-      <c r="G21" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H21" s="5" t="n">
-        <v>44490</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\11.jpg</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Ж</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="18" customHeight="1">
-      <c r="A22" s="7" t="inlineStr">
-        <is>
-          <t>Белый приталенный топ с короткими рукавами и сборками спереди ASOS DESIGN</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="D22" s="6" t="inlineStr">
-        <is>
-          <t>ASOS DESIGN</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>ASOS</t>
-        </is>
-      </c>
-      <c r="F22" s="4" t="n">
-        <v>790</v>
-      </c>
-      <c r="G22" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="H22" s="5" t="n">
+      <c r="H23" s="5" t="n">
         <v>44491</v>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\12.jpg</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Ж</t>
-        </is>
-      </c>
-    </row>
-    <row r="23" ht="18" customHeight="1">
-      <c r="A23" s="7" t="inlineStr">
-        <is>
-          <t>Черный трикотажный кардиган в рубчик с объемными рукавами Topshop</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D23" s="6" t="inlineStr">
-        <is>
-          <t>TopShop</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>ASOS</t>
-        </is>
-      </c>
-      <c r="F23" s="4" t="n">
-        <v>2890</v>
-      </c>
-      <c r="G23" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>44492</v>
-      </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\13.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\19.jpg</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Ж</t>
+          <t>М</t>
         </is>
       </c>
     </row>
     <row r="24" ht="18" customHeight="1">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>Джинсы 501 CROP</t>
+          <t>ПУХОВИК ДЛЯ АЛЬПИНИЗМА МУЖСКОЙ MAKALU SIMOND</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="D24" s="6" t="inlineStr">
         <is>
-          <t>Levi's</t>
+          <t>Simond</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>Lamoda</t>
+          <t>Decathlon</t>
         </is>
       </c>
       <c r="F24" s="4" t="n">
-        <v>9500</v>
+        <v>10999</v>
       </c>
       <c r="G24" s="3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>44490</v>
+        <v>44492</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\14.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\20.jpg</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1577,41 +1535,39 @@
     <row r="25" ht="18" customHeight="1">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Куртка утепленная Favina-1</t>
+          <t>КУРТКА ПУХОВАЯ ТЕПЛАЯ ЛЫЖНАЯ МУЖСКАЯ СИНЯЯ 900 WARM WEDZE</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XXL</t>
         </is>
       </c>
       <c r="D25" s="6" t="inlineStr">
         <is>
-          <t>Hugo</t>
+          <t>Wedze</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>Lamoda</t>
+          <t>Decathlon</t>
         </is>
       </c>
       <c r="F25" s="4" t="n">
-        <v>45000</v>
-      </c>
-      <c r="G25" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+        <v>10999</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>5</v>
       </c>
       <c r="H25" s="5" t="n">
         <v>44550</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\15.jpeg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\21.jpg</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1623,11 +1579,11 @@
     <row r="26" ht="18" customHeight="1">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>Пуховик Dorleon</t>
+          <t>КУРТКА ВОДОНЕПРОНИЦАЕМАЯ ДЛЯ ЯХТИНГА МУЖСКАЯ SAILING 100 TRIBORD</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
@@ -1636,26 +1592,26 @@
       </c>
       <c r="D26" s="6" t="inlineStr">
         <is>
-          <t>Boss</t>
+          <t>Tribord</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>Lamoda</t>
+          <t>Decathlon</t>
         </is>
       </c>
       <c r="F26" s="4" t="n">
-        <v>39200</v>
+        <v>2499</v>
       </c>
       <c r="G26" s="3" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H26" s="5" t="n">
         <v>44492</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\16.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\22.jpg</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1667,39 +1623,39 @@
     <row r="27" ht="36" customHeight="1">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>Рубашка мужская</t>
+          <t>ВЕТРОВКА ДЛЯ БЕГА МУЖСКАЯ RUN WIND ЧЕРНАЯ KALENJI</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="D27" s="6" t="inlineStr">
         <is>
-          <t>O'stin</t>
+          <t>Kalenji</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>Lamoda</t>
+          <t>Decathlon</t>
         </is>
       </c>
       <c r="F27" s="4" t="n">
-        <v>2299</v>
+        <v>1199</v>
       </c>
       <c r="G27" s="3" t="n">
         <v>20</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>44493</v>
+        <v>44550</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\17.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\23.jpg</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1711,39 +1667,39 @@
     <row r="28" ht="36" customHeight="1">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>Свитшот Ritom_W21</t>
+          <t>ФУТБОЛЬНАЯ КУРТКА ДЛЯ ВЗРОСЛЫХ ЛЕГКАЯ T100 KIPSTA</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>XXL</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D28" s="6" t="inlineStr">
         <is>
-          <t>Boss</t>
+          <t>Kipsta</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Lamoda</t>
+          <t>Decathlon</t>
         </is>
       </c>
       <c r="F28" s="4" t="n">
-        <v>9100</v>
+        <v>999</v>
       </c>
       <c r="G28" s="3" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H28" s="5" t="n">
         <v>44490</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\18.jpeg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\24.jpg</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1755,29 +1711,29 @@
     <row r="29" ht="36" customHeight="1">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>ПУХОВИК TREK 500 МУЖСКОЙ FORCLAZ</t>
+          <t>Пултоник водолазка мужская теплая кашемировая шерстяная с высоким горлом больших размеров подарок</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="D29" s="6" t="inlineStr">
         <is>
-          <t>Forclaz</t>
+          <t>Pulltonic</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>Decathlon</t>
+          <t>Wildberries</t>
         </is>
       </c>
       <c r="F29" s="4" t="n">
-        <v>4999</v>
+        <v>2910</v>
       </c>
       <c r="G29" s="3" t="n">
         <v>10</v>
@@ -1787,7 +1743,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\19.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\25.jpg</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1799,39 +1755,39 @@
     <row r="30" ht="18" customHeight="1">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>ПУХОВИК ДЛЯ АЛЬПИНИЗМА МУЖСКОЙ MAKALU SIMOND</t>
+          <t>Пиджак мужской темно-синий</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D30" s="6" t="inlineStr">
         <is>
-          <t>Simond</t>
+          <t>Thomas Berger</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>Decathlon</t>
+          <t>Wildberries</t>
         </is>
       </c>
       <c r="F30" s="4" t="n">
-        <v>10999</v>
+        <v>8542</v>
       </c>
       <c r="G30" s="3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H30" s="5" t="n">
         <v>44492</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\20.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\26.jpg</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1843,39 +1799,39 @@
     <row r="31" ht="36" customHeight="1">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>КУРТКА ПУХОВАЯ ТЕПЛАЯ ЛЫЖНАЯ МУЖСКАЯ СИНЯЯ 900 WARM WEDZE</t>
+          <t>Утепленный стёганный жилет с трикотажным отстёгивающимся капюшоном</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>XXL</t>
+          <t>S</t>
         </is>
       </c>
       <c r="D31" s="6" t="inlineStr">
         <is>
-          <t>Wedze</t>
+          <t>Thomas Berger</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>Decathlon</t>
+          <t>Wildberries</t>
         </is>
       </c>
       <c r="F31" s="4" t="n">
-        <v>10999</v>
+        <v>4798</v>
       </c>
       <c r="G31" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H31" s="5" t="n">
         <v>44550</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\21.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\27.jpg</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1887,39 +1843,39 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>КУРТКА ВОДОНЕПРОНИЦАЕМАЯ ДЛЯ ЯХТИНГА МУЖСКАЯ SAILING 100 TRIBORD</t>
+          <t xml:space="preserve">Куртка мужская зимняя повседневная, спортивная </t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="D32" s="6" t="inlineStr">
         <is>
-          <t>Tribord</t>
+          <t>City Trend Store</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>Decathlon</t>
+          <t>Wildberries</t>
         </is>
       </c>
       <c r="F32" s="4" t="n">
-        <v>2499</v>
+        <v>8381</v>
       </c>
       <c r="G32" s="3" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H32" s="5" t="n">
-        <v>44492</v>
+        <v>44491</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\22.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\28.jpg</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1931,345 +1887,81 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>ВЕТРОВКА ДЛЯ БЕГА МУЖСКАЯ RUN WIND ЧЕРНАЯ KALENJI</t>
+          <t>Куртка мужская зимняя укороченная повседневная удобная</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D33" s="6" t="inlineStr">
         <is>
-          <t>Kalenji</t>
+          <t>Skiff</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>Decathlon</t>
+          <t>Wildberries</t>
         </is>
       </c>
       <c r="F33" s="4" t="n">
-        <v>1199</v>
+        <v>4787</v>
       </c>
       <c r="G33" s="3" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H33" s="5" t="n">
+        <v>44492</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>C:\Users\ily06\Desktop\vizul\photo\29.jpg</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>М</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="inlineStr">
+        <is>
+          <t>Мужская короткая зимняя куртка марки "Modis"</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="D34" s="6" t="inlineStr">
+        <is>
+          <t>Modis</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>Wildberries</t>
+        </is>
+      </c>
+      <c r="F34" s="4" t="n">
+        <v>4849</v>
+      </c>
+      <c r="G34" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H34" s="5" t="n">
         <v>44550</v>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\23.jpg</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>М</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="inlineStr">
-        <is>
-          <t>ФУТБОЛЬНАЯ КУРТКА ДЛЯ ВЗРОСЛЫХ ЛЕГКАЯ T100 KIPSTA</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="C34" s="2" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D34" s="6" t="inlineStr">
-        <is>
-          <t>Kipsta</t>
-        </is>
-      </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>Decathlon</t>
-        </is>
-      </c>
-      <c r="F34" s="4" t="n">
-        <v>999</v>
-      </c>
-      <c r="G34" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="H34" s="5" t="n">
-        <v>44490</v>
-      </c>
       <c r="I34" t="inlineStr">
-        <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\24.jpg</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>М</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="inlineStr">
-        <is>
-          <t>Пултоник водолазка мужская теплая кашемировая шерстяная с высоким горлом больших размеров подарок</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="C35" s="2" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="D35" s="6" t="inlineStr">
-        <is>
-          <t>Pulltonic</t>
-        </is>
-      </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>Wildberries</t>
-        </is>
-      </c>
-      <c r="F35" s="4" t="n">
-        <v>2910</v>
-      </c>
-      <c r="G35" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H35" s="5" t="n">
-        <v>44491</v>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\25.jpg</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>М</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="inlineStr">
-        <is>
-          <t>Пиджак мужской темно-синий</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="C36" s="2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D36" s="6" t="inlineStr">
-        <is>
-          <t>Thomas Berger</t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>Wildberries</t>
-        </is>
-      </c>
-      <c r="F36" s="4" t="n">
-        <v>8542</v>
-      </c>
-      <c r="G36" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H36" s="5" t="n">
-        <v>44492</v>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\26.jpg</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>М</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="inlineStr">
-        <is>
-          <t>Утепленный стёганный жилет с трикотажным отстёгивающимся капюшоном</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="C37" s="2" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="D37" s="6" t="inlineStr">
-        <is>
-          <t>Thomas Berger</t>
-        </is>
-      </c>
-      <c r="E37" s="2" t="inlineStr">
-        <is>
-          <t>Wildberries</t>
-        </is>
-      </c>
-      <c r="F37" s="4" t="n">
-        <v>4798</v>
-      </c>
-      <c r="G37" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="H37" s="5" t="n">
-        <v>44550</v>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\27.jpg</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>М</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Куртка мужская зимняя повседневная, спортивная </t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="C38" s="2" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="D38" s="6" t="inlineStr">
-        <is>
-          <t>City Trend Store</t>
-        </is>
-      </c>
-      <c r="E38" s="2" t="inlineStr">
-        <is>
-          <t>Wildberries</t>
-        </is>
-      </c>
-      <c r="F38" s="4" t="n">
-        <v>8381</v>
-      </c>
-      <c r="G38" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="H38" s="5" t="n">
-        <v>44491</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\28.jpg</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>М</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="3" t="inlineStr">
-        <is>
-          <t>Куртка мужская зимняя укороченная повседневная удобная</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="C39" s="2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D39" s="6" t="inlineStr">
-        <is>
-          <t>Skiff</t>
-        </is>
-      </c>
-      <c r="E39" s="2" t="inlineStr">
-        <is>
-          <t>Wildberries</t>
-        </is>
-      </c>
-      <c r="F39" s="4" t="n">
-        <v>4787</v>
-      </c>
-      <c r="G39" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="H39" s="5" t="n">
-        <v>44492</v>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\29.jpg</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>М</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="7" t="inlineStr">
-        <is>
-          <t>Мужская короткая зимняя куртка марки "Modis"</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="C40" s="2" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="D40" s="6" t="inlineStr">
-        <is>
-          <t>Modis</t>
-        </is>
-      </c>
-      <c r="E40" s="2" t="inlineStr">
-        <is>
-          <t>Wildberries</t>
-        </is>
-      </c>
-      <c r="F40" s="4" t="n">
-        <v>4849</v>
-      </c>
-      <c r="G40" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="H40" s="5" t="n">
-        <v>44550</v>
-      </c>
-      <c r="I40" t="inlineStr">
         <is>
           <t>C:\Users\ily06\Desktop\vizul\photo\30.jpg</t>
         </is>
@@ -2287,7 +1979,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -2365,27 +2057,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>тест</t>
+          <t>Куртка утепленная женская Columbia Joy Peak, Plus Size</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>777</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outventure</t>
+          <t>Columbia</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Lamoda</t>
+          <t>Спортмастер</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -2405,12 +2097,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C:/Users/ily06/Desktop/vizul/1.png</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\2.jpg</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>М</t>
+          <t>Ж</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -2422,17 +2114,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>тест</t>
+          <t>Куртка утепленная женская Outventure</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>777</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>S</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2442,12 +2134,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Lamoda</t>
+          <t>Спортмастер</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2249</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -2462,34 +2154,34 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C:/Users/ily06/Desktop/vizul/1.png</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\1.jpg</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>М</t>
+          <t>Ж</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>В</t>
+          <t>П</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>тест</t>
+          <t>Куртка утепленная женская Outventure</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>777</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>S</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2499,12 +2191,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Lamoda</t>
+          <t>Спортмастер</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>21131</t>
+          <t>2249</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -2519,12 +2211,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C:/Users/ily06/Desktop/vizul/1.png</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\1.jpg</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>М</t>
+          <t>Ж</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -2536,17 +2228,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>тест</t>
+          <t>Куртка утепленная женская Outventure</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>777</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>S</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2556,7 +2248,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Lamoda</t>
+          <t>Спортмастер</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -2576,12 +2268,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C:/Users/ily06/Desktop/vizul/1.png</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\1.jpg</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>М</t>
+          <t>Ж</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -2593,17 +2285,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>тест</t>
+          <t>Куртка утепленная женская Outventure</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>777</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>S</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2613,12 +2305,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Lamoda</t>
+          <t>Спортмастер</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>21131</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -2633,29 +2325,29 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C:/Users/ily06/Desktop/vizul/1.png</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\1.jpg</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>М</t>
+          <t>Ж</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>П</t>
+          <t>В</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Джемпер флисовый женский Columbia West Bend™</t>
+          <t>Куртка утепленная женская Outventure</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2665,7 +2357,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Columbia</t>
+          <t>Outventure</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -2690,7 +2382,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\3.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\1.jpg</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -2707,32 +2399,32 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>212323</t>
+          <t>dhkjsfdlkjsf</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3219832189</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Columbia</t>
+          <t>Jack Wolfskin</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Спортмастер</t>
+          <t>ASOS</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>231321</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -2757,39 +2449,39 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>В</t>
+          <t>П</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Куртка утепленная Favina-1</t>
+          <t>dhkjsfdlkjsf</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3219832189</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hugo</t>
+          <t>Jack Wolfskin</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lamoda</t>
+          <t>ASOS</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>45000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -2804,7 +2496,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\15.jpeg</t>
+          <t>C:/Users/ily06/Desktop/vizul/1.png</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -2814,29 +2506,29 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>П</t>
+          <t>В</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dsadsadadsafgfhgfjhgjgh</t>
+          <t>dhkjsfdlkjsf</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1231</t>
+          <t>3219832189</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>S</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Columbia</t>
+          <t>Jack Wolfskin</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2871,29 +2563,29 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Б</t>
+          <t>В</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>dczxcd</t>
+          <t>Свитшот женский FILA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>21321</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outventure</t>
+          <t>FILA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2903,7 +2595,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1609</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -2918,29 +2610,29 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>C:/Users/ily06/Desktop/vizul/1.png</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\5.jpg</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>М</t>
+          <t>Ж</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>В</t>
+          <t>П</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>dfsafdsagdghfdh</t>
+          <t>Куртка утепленная женская Outventure</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>12121321</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2950,7 +2642,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Columbia</t>
+          <t>Outventure</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2960,7 +2652,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2249</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -2975,39 +2667,39 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>C:/Users/ily06/Desktop/vizul/1.png</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\1.jpg</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>М</t>
+          <t>Ж</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Б</t>
+          <t>П</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Куртка утепленная женская Columbia Joy Peak, Plus Size</t>
+          <t>Куртка утепленная женская Outventure</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Columbia</t>
+          <t>Outventure</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3027,12 +2719,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2021-12-26 19:14:38.067133</t>
+          <t>2021,12,26</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\2.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\1.jpg</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -3049,22 +2741,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Куртка утепленная женская Columbia Joy Peak, Plus Size</t>
+          <t>Куртка утепленная женская Outventure</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Columbia</t>
+          <t>Outventure</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3074,7 +2766,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>6499</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -3084,12 +2776,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2021-12-26 19:14:29.184674</t>
+          <t>2021,12,26</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\2.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\1.jpg</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -3099,29 +2791,29 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>П</t>
+          <t>В</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Джемпер флисовый женский Columbia West Bend™</t>
+          <t>Брюки женские FILA</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Columbia</t>
+          <t>FILA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3141,12 +2833,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2021-12-20 00:00:00</t>
+          <t>2021,12,26</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\3.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\4.jpg</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -3163,12 +2855,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Джемпер флисовый женский Columbia West Bend™</t>
+          <t>Куртка утепленная женская Outventure</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3178,7 +2870,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Columbia</t>
+          <t>Outventure</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -3198,12 +2890,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2021-12-20 00:00:00</t>
+          <t>2021,12,26</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>C:\Users\ily06\Desktop\vizul\photo\3.jpg</t>
+          <t>C:\Users\ily06\Desktop\vizul\photo\1.jpg</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -3213,62 +2905,689 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>В</t>
+          <t>Б</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>bvcbvxc</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>32432</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Columbia</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ASOS</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2021,12,26</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>C:/Users/ily06/Desktop/vizul/1.png</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>М</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Б</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>выфьоаловрыроапвы</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1392030</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Columbia</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Спортмастер</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2021,12,26</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>C:/Users/ily06/Desktop/vizul/1.png</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>М</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>выфьоаловрыроапвы</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1392030</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Columbia</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Спортмастер</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2021,12,26</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>C:/Users/ily06/Desktop/vizul/1.png</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>М</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>выфьоаловрыроапвы</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1392030</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Columbia</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Спортмастер</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2021,12,26</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>C:/Users/ily06/Desktop/vizul/1.png</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>М</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>выфьоаловрыроапвы</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1392030</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Columbia</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Спортмастер</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2021,12,26</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>C:/Users/ily06/Desktop/vizul/1.png</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>М</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>выфьоаловрыроапвы</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1392030</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Columbia</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Спортмастер</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>213213</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2021,12,26</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>C:/Users/ily06/Desktop/vizul/1.png</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>М</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>П</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>выфьоаловрыроапвы</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1392030</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Columbia</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Спортмастер</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2021,12,26</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>C:/Users/ily06/Desktop/vizul/1.png</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>М</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>bvcbvxc</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>32432</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Columbia</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ASOS</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2021,12,26</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>C:/Users/ily06/Desktop/vizul/1.png</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>М</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>bvcbvxc</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>32432</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Columbia</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>ASOS</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2021,12,26</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>C:/Users/ily06/Desktop/vizul/1.png</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>М</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Б</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>bvcbvxc</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>32432</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Columbia</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>ASOS</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2021,12,26</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>C:/Users/ily06/Desktop/vizul/1.png</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>М</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>Джемпер флисовый женский Columbia West Bend™</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>Columbia</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>Спортмастер</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-12-20 00:00:00</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2021,12,26</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>C:\Users\ily06\Desktop\vizul\photo\3.jpg</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>Ж</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Б</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Куртка утепленная женская Outventure</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Outventure</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Спортмастер</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2021,12,26</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>C:\Users\ily06\Desktop\vizul\photo\1.jpg</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Ж</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>Б</t>
         </is>

--- a/baza.xlsx
+++ b/baza.xlsx
@@ -2107,7 +2107,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>В</t>
+          <t>Б</t>
         </is>
       </c>
     </row>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2249</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -2164,7 +2164,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>П</t>
+          <t>Б</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>В</t>
+          <t>Б</t>
         </is>
       </c>
     </row>
